--- a/I_ITALIANS/Categories_produits_italians_OPTIMISEES.xlsx
+++ b/I_ITALIANS/Categories_produits_italians_OPTIMISEES.xlsx
@@ -15,7 +15,7 @@
     <sheet name="VOLUME - HMSM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VOLUME - HMSM'!$A$5:$M$1279</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VOLUME - HMSM'!$A$5:$M$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10123" uniqueCount="4271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10114" uniqueCount="4270">
   <si>
     <t>ENSEIGNES HMSM</t>
   </si>
@@ -11916,9 +11916,6 @@
   </si>
   <si>
     <t>3478828009753</t>
-  </si>
-  <si>
-    <t>SAUCES POUR FECULENTS POT AUT FAB JARDIN BIO BIO PF BASILIC 2CT 200G PRIX BIO</t>
   </si>
   <si>
     <t>3760020505455</t>
@@ -13459,10 +13456,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:M1474"/>
+  <dimension ref="A2:M1473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1168" sqref="A1168:XFD1168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13509,7 +13506,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>7</v>
@@ -13980,7 +13977,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G16" s="14">
         <v>190</v>
@@ -14023,7 +14020,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G17" s="14">
         <v>200</v>
@@ -14066,7 +14063,7 @@
         <v>58</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G18" s="14">
         <v>200</v>
@@ -14496,7 +14493,7 @@
         <v>106</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G28" s="14">
         <v>400</v>
@@ -14582,7 +14579,7 @@
         <v>106</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G30" s="14">
         <v>400</v>
@@ -14797,7 +14794,7 @@
         <v>133</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G35" s="14">
         <v>400</v>
@@ -15012,7 +15009,7 @@
         <v>58</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G40" s="21">
         <v>190</v>
@@ -15614,7 +15611,7 @@
         <v>133</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G54" s="21">
         <v>210</v>
@@ -15829,7 +15826,7 @@
         <v>63</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G59" s="21">
         <v>190</v>
@@ -16001,7 +15998,7 @@
         <v>232</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G63" s="21">
         <v>420</v>
@@ -16044,7 +16041,7 @@
         <v>133</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G64" s="21">
         <v>370</v>
@@ -16216,7 +16213,7 @@
         <v>250</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G68" s="21">
         <v>190</v>
@@ -16345,7 +16342,7 @@
         <v>58</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G71" s="21">
         <v>185</v>
@@ -16388,7 +16385,7 @@
         <v>232</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G72" s="21">
         <v>420</v>
@@ -16431,7 +16428,7 @@
         <v>106</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G73" s="21">
         <v>190</v>
@@ -16646,7 +16643,7 @@
         <v>106</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G78" s="21">
         <v>210</v>
@@ -16732,7 +16729,7 @@
         <v>232</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G80" s="21">
         <v>400</v>
@@ -16775,7 +16772,7 @@
         <v>58</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G81" s="21">
         <v>380</v>
@@ -16818,7 +16815,7 @@
         <v>232</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G82" s="21">
         <v>400</v>
@@ -16861,7 +16858,7 @@
         <v>58</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G83" s="21">
         <v>190</v>
@@ -16904,7 +16901,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G84" s="21">
         <v>400</v>
@@ -16947,7 +16944,7 @@
         <v>232</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G85" s="21">
         <v>200</v>
@@ -17076,7 +17073,7 @@
         <v>232</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G88" s="21">
         <v>200</v>
@@ -17162,7 +17159,7 @@
         <v>232</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G90" s="21">
         <v>510</v>
@@ -17291,7 +17288,7 @@
         <v>106</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G93" s="21">
         <v>200</v>
@@ -17334,7 +17331,7 @@
         <v>106</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G94" s="21">
         <v>500</v>
@@ -17377,7 +17374,7 @@
         <v>58</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G95" s="21">
         <v>195</v>
@@ -17592,7 +17589,7 @@
         <v>58</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G100" s="21">
         <v>190</v>
@@ -17678,7 +17675,7 @@
         <v>63</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G102" s="21">
         <v>190</v>
@@ -17764,7 +17761,7 @@
         <v>58</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G104" s="21">
         <v>190</v>
@@ -17807,7 +17804,7 @@
         <v>232</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G105" s="21">
         <v>400</v>
@@ -17936,7 +17933,7 @@
         <v>232</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G108" s="21">
         <v>320</v>
@@ -18194,7 +18191,7 @@
         <v>232</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G114" s="21">
         <v>200</v>
@@ -18237,7 +18234,7 @@
         <v>232</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G115" s="21">
         <v>320</v>
@@ -18323,7 +18320,7 @@
         <v>58</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G117" s="21">
         <v>190</v>
@@ -18409,7 +18406,7 @@
         <v>232</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G119" s="21">
         <v>490</v>
@@ -18452,7 +18449,7 @@
         <v>232</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G120" s="21">
         <v>190</v>
@@ -18538,7 +18535,7 @@
         <v>232</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G122" s="21">
         <v>490</v>
@@ -18581,7 +18578,7 @@
         <v>232</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G123" s="21">
         <v>300</v>
@@ -18710,7 +18707,7 @@
         <v>63</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G126" s="21">
         <v>175</v>
@@ -18968,7 +18965,7 @@
         <v>232</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G132" s="21">
         <v>350</v>
@@ -19054,7 +19051,7 @@
         <v>232</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G134" s="21">
         <v>510</v>
@@ -19140,7 +19137,7 @@
         <v>501</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G136" s="21">
         <v>195</v>
@@ -19183,7 +19180,7 @@
         <v>63</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G137" s="21">
         <v>190</v>
@@ -19226,7 +19223,7 @@
         <v>63</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G138" s="21">
         <v>190</v>
@@ -19355,7 +19352,7 @@
         <v>232</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G141" s="21">
         <v>800</v>
@@ -19398,7 +19395,7 @@
         <v>522</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G142" s="21">
         <v>190</v>
@@ -19742,7 +19739,7 @@
         <v>63</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G150" s="21">
         <v>190</v>
@@ -19828,7 +19825,7 @@
         <v>58</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G152" s="21">
         <v>185</v>
@@ -19871,7 +19868,7 @@
         <v>63</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G153" s="21">
         <v>190</v>
@@ -20086,7 +20083,7 @@
         <v>106</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G158" s="21">
         <v>800</v>
@@ -20215,7 +20212,7 @@
         <v>58</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G161" s="21">
         <v>190</v>
@@ -20430,7 +20427,7 @@
         <v>63</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G166" s="21">
         <v>190</v>
@@ -20645,7 +20642,7 @@
         <v>58</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G171" s="21">
         <v>190</v>
@@ -20688,7 +20685,7 @@
         <v>232</v>
       </c>
       <c r="F172" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G172" s="21">
         <v>490</v>
@@ -20774,7 +20771,7 @@
         <v>58</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G174" s="21">
         <v>290</v>
@@ -20817,7 +20814,7 @@
         <v>232</v>
       </c>
       <c r="F175" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G175" s="21">
         <v>420</v>
@@ -20860,7 +20857,7 @@
         <v>58</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G176" s="21">
         <v>190</v>
@@ -20903,7 +20900,7 @@
         <v>63</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G177" s="21">
         <v>200</v>
@@ -21118,7 +21115,7 @@
         <v>232</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G182" s="21">
         <v>300</v>
@@ -21290,7 +21287,7 @@
         <v>681</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G186" s="21">
         <v>175</v>
@@ -21333,7 +21330,7 @@
         <v>63</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G187" s="21">
         <v>190</v>
@@ -21419,7 +21416,7 @@
         <v>232</v>
       </c>
       <c r="F189" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G189" s="21">
         <v>210</v>
@@ -21634,7 +21631,7 @@
         <v>106</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G194" s="21">
         <v>250</v>
@@ -21677,7 +21674,7 @@
         <v>58</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G195" s="21">
         <v>190</v>
@@ -21804,7 +21801,7 @@
         <v>58</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G198" s="21">
         <v>135</v>
@@ -21847,7 +21844,7 @@
         <v>232</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G199" s="21">
         <v>420</v>
@@ -21929,7 +21926,7 @@
         <v>58</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G201" s="21">
         <v>190</v>
@@ -21972,7 +21969,7 @@
         <v>63</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G202" s="21">
         <v>290</v>
@@ -22015,7 +22012,7 @@
         <v>232</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G203" s="21">
         <v>200</v>
@@ -22144,7 +22141,7 @@
         <v>232</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G206" s="21">
         <v>300</v>
@@ -22187,7 +22184,7 @@
         <v>58</v>
       </c>
       <c r="F207" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G207" s="21">
         <v>190</v>
@@ -22273,7 +22270,7 @@
         <v>232</v>
       </c>
       <c r="F209" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G209" s="21">
         <v>210</v>
@@ -22402,7 +22399,7 @@
         <v>58</v>
       </c>
       <c r="F212" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G212" s="21">
         <v>190</v>
@@ -22574,7 +22571,7 @@
         <v>789</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G216" s="21">
         <v>180</v>
@@ -22617,7 +22614,7 @@
         <v>232</v>
       </c>
       <c r="F217" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G217" s="21">
         <v>420</v>
@@ -22703,7 +22700,7 @@
         <v>63</v>
       </c>
       <c r="F219" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G219" s="21">
         <v>190</v>
@@ -22789,7 +22786,7 @@
         <v>681</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G221" s="21">
         <v>180</v>
@@ -22918,7 +22915,7 @@
         <v>63</v>
       </c>
       <c r="F224" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G224" s="21">
         <v>490</v>
@@ -22961,7 +22958,7 @@
         <v>106</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G225" s="21">
         <v>290</v>
@@ -23004,7 +23001,7 @@
         <v>106</v>
       </c>
       <c r="F226" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G226" s="21">
         <v>190</v>
@@ -23133,7 +23130,7 @@
         <v>133</v>
       </c>
       <c r="F229" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G229" s="21">
         <v>250</v>
@@ -23176,7 +23173,7 @@
         <v>106</v>
       </c>
       <c r="F230" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G230" s="21">
         <v>190</v>
@@ -23305,7 +23302,7 @@
         <v>63</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G233" s="21">
         <v>290</v>
@@ -23434,7 +23431,7 @@
         <v>250</v>
       </c>
       <c r="F236" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G236" s="21">
         <v>290</v>
@@ -23563,7 +23560,7 @@
         <v>58</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G239" s="21">
         <v>190</v>
@@ -24028,7 +24025,7 @@
         <v>58</v>
       </c>
       <c r="F250" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G250" s="21">
         <v>240</v>
@@ -24157,7 +24154,7 @@
         <v>681</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G253" s="21">
         <v>190</v>
@@ -24286,7 +24283,7 @@
         <v>522</v>
       </c>
       <c r="F256" s="17" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G256" s="21">
         <v>190</v>
@@ -24329,7 +24326,7 @@
         <v>106</v>
       </c>
       <c r="F257" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G257" s="21">
         <v>250</v>
@@ -24372,7 +24369,7 @@
         <v>133</v>
       </c>
       <c r="F258" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G258" s="21">
         <v>345</v>
@@ -24458,7 +24455,7 @@
         <v>58</v>
       </c>
       <c r="F260" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G260" s="21">
         <v>190</v>
@@ -24544,7 +24541,7 @@
         <v>106</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G262" s="21">
         <v>200</v>
@@ -24587,7 +24584,7 @@
         <v>63</v>
       </c>
       <c r="F263" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G263" s="21">
         <v>190</v>
@@ -24759,7 +24756,7 @@
         <v>106</v>
       </c>
       <c r="F267" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G267" s="21">
         <v>240</v>
@@ -24802,7 +24799,7 @@
         <v>232</v>
       </c>
       <c r="F268" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G268" s="21">
         <v>390</v>
@@ -24845,7 +24842,7 @@
         <v>232</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G269" s="21">
         <v>690</v>
@@ -25146,7 +25143,7 @@
         <v>232</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G276" s="21">
         <v>490</v>
@@ -25189,7 +25186,7 @@
         <v>58</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G277" s="21">
         <v>290</v>
@@ -25232,7 +25229,7 @@
         <v>232</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G278" s="21">
         <v>190</v>
@@ -25275,7 +25272,7 @@
         <v>232</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G279" s="21">
         <v>190</v>
@@ -25361,7 +25358,7 @@
         <v>58</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G281" s="21">
         <v>190</v>
@@ -25447,7 +25444,7 @@
         <v>106</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G283" s="21">
         <v>350</v>
@@ -25705,7 +25702,7 @@
         <v>232</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G289" s="21">
         <v>350</v>
@@ -25748,7 +25745,7 @@
         <v>106</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G290" s="21">
         <v>350</v>
@@ -25920,7 +25917,7 @@
         <v>232</v>
       </c>
       <c r="F294" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G294" s="21">
         <v>350</v>
@@ -26092,7 +26089,7 @@
         <v>232</v>
       </c>
       <c r="F298" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G298" s="21">
         <v>240</v>
@@ -26178,7 +26175,7 @@
         <v>232</v>
       </c>
       <c r="F300" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G300" s="21">
         <v>190</v>
@@ -26221,7 +26218,7 @@
         <v>63</v>
       </c>
       <c r="F301" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G301" s="21">
         <v>400</v>
@@ -26264,7 +26261,7 @@
         <v>250</v>
       </c>
       <c r="F302" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G302" s="21">
         <v>400</v>
@@ -26307,7 +26304,7 @@
         <v>58</v>
       </c>
       <c r="F303" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G303" s="21">
         <v>180</v>
@@ -26479,7 +26476,7 @@
         <v>63</v>
       </c>
       <c r="F307" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G307" s="21">
         <v>135</v>
@@ -26522,7 +26519,7 @@
         <v>232</v>
       </c>
       <c r="F308" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G308" s="21">
         <v>190</v>
@@ -26780,7 +26777,7 @@
         <v>63</v>
       </c>
       <c r="F314" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G314" s="21">
         <v>190</v>
@@ -26823,7 +26820,7 @@
         <v>250</v>
       </c>
       <c r="F315" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G315" s="21">
         <v>200</v>
@@ -26909,7 +26906,7 @@
         <v>63</v>
       </c>
       <c r="F317" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G317" s="21">
         <v>190</v>
@@ -26952,7 +26949,7 @@
         <v>106</v>
       </c>
       <c r="F318" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G318" s="21">
         <v>200</v>
@@ -26995,7 +26992,7 @@
         <v>63</v>
       </c>
       <c r="F319" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G319" s="21">
         <v>190</v>
@@ -27296,7 +27293,7 @@
         <v>58</v>
       </c>
       <c r="F326" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G326" s="21">
         <v>190</v>
@@ -27382,7 +27379,7 @@
         <v>232</v>
       </c>
       <c r="F328" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G328" s="21">
         <v>240</v>
@@ -27468,7 +27465,7 @@
         <v>63</v>
       </c>
       <c r="F330" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G330" s="21">
         <v>490</v>
@@ -27597,7 +27594,7 @@
         <v>63</v>
       </c>
       <c r="F333" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G333" s="21">
         <v>190</v>
@@ -27683,7 +27680,7 @@
         <v>106</v>
       </c>
       <c r="F335" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G335" s="21">
         <v>250</v>
@@ -27769,7 +27766,7 @@
         <v>232</v>
       </c>
       <c r="F337" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G337" s="21">
         <v>180</v>
@@ -27812,7 +27809,7 @@
         <v>58</v>
       </c>
       <c r="F338" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G338" s="21">
         <v>180</v>
@@ -27855,7 +27852,7 @@
         <v>232</v>
       </c>
       <c r="F339" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G339" s="21">
         <v>380</v>
@@ -27941,7 +27938,7 @@
         <v>133</v>
       </c>
       <c r="F341" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G341" s="21">
         <v>300</v>
@@ -27984,7 +27981,7 @@
         <v>232</v>
       </c>
       <c r="F342" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G342" s="21">
         <v>380</v>
@@ -28027,7 +28024,7 @@
         <v>58</v>
       </c>
       <c r="F343" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G343" s="21">
         <v>180</v>
@@ -28113,7 +28110,7 @@
         <v>58</v>
       </c>
       <c r="F345" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G345" s="21">
         <v>100</v>
@@ -28242,7 +28239,7 @@
         <v>106</v>
       </c>
       <c r="F348" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G348" s="21">
         <v>190</v>
@@ -28328,7 +28325,7 @@
         <v>63</v>
       </c>
       <c r="F350" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G350" s="21">
         <v>110</v>
@@ -28371,7 +28368,7 @@
         <v>106</v>
       </c>
       <c r="F351" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G351" s="21">
         <v>200</v>
@@ -28414,7 +28411,7 @@
         <v>232</v>
       </c>
       <c r="F352" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G352" s="21">
         <v>350</v>
@@ -28543,7 +28540,7 @@
         <v>232</v>
       </c>
       <c r="F355" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G355" s="21">
         <v>190</v>
@@ -28629,7 +28626,7 @@
         <v>232</v>
       </c>
       <c r="F357" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G357" s="21">
         <v>680</v>
@@ -28672,7 +28669,7 @@
         <v>250</v>
       </c>
       <c r="F358" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G358" s="21">
         <v>190</v>
@@ -28887,7 +28884,7 @@
         <v>106</v>
       </c>
       <c r="F363" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G363" s="21">
         <v>300</v>
@@ -29145,7 +29142,7 @@
         <v>63</v>
       </c>
       <c r="F369" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G369" s="21">
         <v>190</v>
@@ -29188,7 +29185,7 @@
         <v>232</v>
       </c>
       <c r="F370" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G370" s="21">
         <v>190</v>
@@ -29231,7 +29228,7 @@
         <v>232</v>
       </c>
       <c r="F371" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G371" s="21">
         <v>340</v>
@@ -29274,7 +29271,7 @@
         <v>58</v>
       </c>
       <c r="F372" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G372" s="21">
         <v>150</v>
@@ -29317,7 +29314,7 @@
         <v>250</v>
       </c>
       <c r="F373" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G373" s="21">
         <v>190</v>
@@ -29489,7 +29486,7 @@
         <v>63</v>
       </c>
       <c r="F377" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G377" s="21">
         <v>190</v>
@@ -29532,7 +29529,7 @@
         <v>232</v>
       </c>
       <c r="F378" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G378" s="21">
         <v>250</v>
@@ -29704,7 +29701,7 @@
         <v>232</v>
       </c>
       <c r="F382" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G382" s="21">
         <v>190</v>
@@ -29833,7 +29830,7 @@
         <v>1387</v>
       </c>
       <c r="F385" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G385" s="21">
         <v>135</v>
@@ -30048,7 +30045,7 @@
         <v>58</v>
       </c>
       <c r="F390" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G390" s="21">
         <v>180</v>
@@ -30306,7 +30303,7 @@
         <v>232</v>
       </c>
       <c r="F396" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G396" s="21">
         <v>180</v>
@@ -30392,7 +30389,7 @@
         <v>133</v>
       </c>
       <c r="F398" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G398" s="21">
         <v>190</v>
@@ -30521,7 +30518,7 @@
         <v>232</v>
       </c>
       <c r="F401" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G401" s="21">
         <v>240</v>
@@ -30564,7 +30561,7 @@
         <v>232</v>
       </c>
       <c r="F402" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G402" s="21">
         <v>350</v>
@@ -30779,7 +30776,7 @@
         <v>58</v>
       </c>
       <c r="F407" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G407" s="21">
         <v>200</v>
@@ -31080,7 +31077,7 @@
         <v>63</v>
       </c>
       <c r="F414" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G414" s="21">
         <v>180</v>
@@ -31123,7 +31120,7 @@
         <v>232</v>
       </c>
       <c r="F415" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G415" s="21">
         <v>190</v>
@@ -31295,7 +31292,7 @@
         <v>232</v>
       </c>
       <c r="F419" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G419" s="21">
         <v>500</v>
@@ -31467,7 +31464,7 @@
         <v>789</v>
       </c>
       <c r="F423" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G423" s="21">
         <v>190</v>
@@ -31510,7 +31507,7 @@
         <v>63</v>
       </c>
       <c r="F424" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G424" s="21">
         <v>360</v>
@@ -31811,7 +31808,7 @@
         <v>232</v>
       </c>
       <c r="F431" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G431" s="21">
         <v>380</v>
@@ -31854,7 +31851,7 @@
         <v>58</v>
       </c>
       <c r="F432" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G432" s="21">
         <v>120</v>
@@ -31983,7 +31980,7 @@
         <v>63</v>
       </c>
       <c r="F435" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G435" s="21">
         <v>180</v>
@@ -32069,7 +32066,7 @@
         <v>232</v>
       </c>
       <c r="F437" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G437" s="21">
         <v>200</v>
@@ -32112,7 +32109,7 @@
         <v>63</v>
       </c>
       <c r="F438" s="20" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G438" s="21">
         <v>180</v>
@@ -32413,7 +32410,7 @@
         <v>58</v>
       </c>
       <c r="F445" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G445" s="21">
         <v>180</v>
@@ -32456,7 +32453,7 @@
         <v>232</v>
       </c>
       <c r="F446" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G446" s="21">
         <v>190</v>
@@ -32499,7 +32496,7 @@
         <v>232</v>
       </c>
       <c r="F447" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G447" s="21">
         <v>190</v>
@@ -33101,7 +33098,7 @@
         <v>232</v>
       </c>
       <c r="F461" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G461" s="21">
         <v>200</v>
@@ -33187,7 +33184,7 @@
         <v>58</v>
       </c>
       <c r="F463" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G463" s="21">
         <v>180</v>
@@ -33230,7 +33227,7 @@
         <v>58</v>
       </c>
       <c r="F464" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G464" s="21">
         <v>95</v>
@@ -33488,7 +33485,7 @@
         <v>106</v>
       </c>
       <c r="F470" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G470" s="21">
         <v>280</v>
@@ -33574,7 +33571,7 @@
         <v>58</v>
       </c>
       <c r="F472" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G472" s="21">
         <v>190</v>
@@ -33746,7 +33743,7 @@
         <v>58</v>
       </c>
       <c r="F476" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G476" s="21">
         <v>90</v>
@@ -33789,7 +33786,7 @@
         <v>58</v>
       </c>
       <c r="F477" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G477" s="21">
         <v>190</v>
@@ -33961,7 +33958,7 @@
         <v>133</v>
       </c>
       <c r="F481" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G481" s="21">
         <v>280</v>
@@ -34004,7 +34001,7 @@
         <v>58</v>
       </c>
       <c r="F482" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G482" s="21">
         <v>140</v>
@@ -34047,7 +34044,7 @@
         <v>58</v>
       </c>
       <c r="F483" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G483" s="21">
         <v>180</v>
@@ -34305,7 +34302,7 @@
         <v>106</v>
       </c>
       <c r="F489" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G489" s="21">
         <v>300</v>
@@ -34391,7 +34388,7 @@
         <v>232</v>
       </c>
       <c r="F491" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G491" s="21">
         <v>400</v>
@@ -34477,7 +34474,7 @@
         <v>250</v>
       </c>
       <c r="F493" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G493" s="21">
         <v>300</v>
@@ -34520,7 +34517,7 @@
         <v>522</v>
       </c>
       <c r="F494" s="17" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G494" s="21">
         <v>190</v>
@@ -34649,7 +34646,7 @@
         <v>133</v>
       </c>
       <c r="F497" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G497" s="21">
         <v>350</v>
@@ -34735,7 +34732,7 @@
         <v>58</v>
       </c>
       <c r="F499" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G499" s="21">
         <v>190</v>
@@ -34778,7 +34775,7 @@
         <v>58</v>
       </c>
       <c r="F500" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G500" s="21">
         <v>190</v>
@@ -34950,7 +34947,7 @@
         <v>232</v>
       </c>
       <c r="F504" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G504" s="21">
         <v>350</v>
@@ -34993,7 +34990,7 @@
         <v>106</v>
       </c>
       <c r="F505" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G505" s="21">
         <v>320</v>
@@ -35036,7 +35033,7 @@
         <v>232</v>
       </c>
       <c r="F506" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G506" s="21">
         <v>200</v>
@@ -35122,7 +35119,7 @@
         <v>63</v>
       </c>
       <c r="F508" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G508" s="21">
         <v>180</v>
@@ -35165,7 +35162,7 @@
         <v>106</v>
       </c>
       <c r="F509" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G509" s="21">
         <v>415</v>
@@ -35208,7 +35205,7 @@
         <v>58</v>
       </c>
       <c r="F510" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G510" s="21">
         <v>180</v>
@@ -35466,7 +35463,7 @@
         <v>133</v>
       </c>
       <c r="F516" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G516" s="21">
         <v>190</v>
@@ -35509,7 +35506,7 @@
         <v>250</v>
       </c>
       <c r="F517" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G517" s="21">
         <v>350</v>
@@ -35552,7 +35549,7 @@
         <v>58</v>
       </c>
       <c r="F518" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G518" s="21">
         <v>190</v>
@@ -35595,7 +35592,7 @@
         <v>58</v>
       </c>
       <c r="F519" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G519" s="21">
         <v>135</v>
@@ -35638,7 +35635,7 @@
         <v>58</v>
       </c>
       <c r="F520" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G520" s="21">
         <v>180</v>
@@ -35724,7 +35721,7 @@
         <v>58</v>
       </c>
       <c r="F522" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G522" s="21">
         <v>180</v>
@@ -35767,7 +35764,7 @@
         <v>106</v>
       </c>
       <c r="F523" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G523" s="21">
         <v>400</v>
@@ -36023,7 +36020,7 @@
         <v>250</v>
       </c>
       <c r="F529" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G529" s="21">
         <v>190</v>
@@ -36195,7 +36192,7 @@
         <v>58</v>
       </c>
       <c r="F533" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="12" t="s">
@@ -36279,7 +36276,7 @@
         <v>232</v>
       </c>
       <c r="F535" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G535" s="21">
         <v>345</v>
@@ -36365,7 +36362,7 @@
         <v>250</v>
       </c>
       <c r="F537" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G537" s="21">
         <v>190</v>
@@ -36408,7 +36405,7 @@
         <v>681</v>
       </c>
       <c r="F538" s="20" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G538" s="21">
         <v>190</v>
@@ -36494,7 +36491,7 @@
         <v>789</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G540" s="21">
         <v>200</v>
@@ -36580,7 +36577,7 @@
         <v>789</v>
       </c>
       <c r="F542" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G542" s="21">
         <v>190</v>
@@ -36623,7 +36620,7 @@
         <v>58</v>
       </c>
       <c r="F543" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G543" s="21">
         <v>200</v>
@@ -36709,7 +36706,7 @@
         <v>250</v>
       </c>
       <c r="F545" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G545" s="21">
         <v>130</v>
@@ -36967,7 +36964,7 @@
         <v>63</v>
       </c>
       <c r="F551" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G551" s="21"/>
       <c r="H551" s="12" t="s">
@@ -37180,7 +37177,7 @@
         <v>133</v>
       </c>
       <c r="F556" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G556" s="21">
         <v>250</v>
@@ -37266,7 +37263,7 @@
         <v>250</v>
       </c>
       <c r="F558" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G558" s="21">
         <v>180</v>
@@ -37309,7 +37306,7 @@
         <v>522</v>
       </c>
       <c r="F559" s="17" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G559" s="21">
         <v>190</v>
@@ -37395,7 +37392,7 @@
         <v>58</v>
       </c>
       <c r="F561" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G561" s="21">
         <v>130</v>
@@ -37438,7 +37435,7 @@
         <v>2015</v>
       </c>
       <c r="F562" s="17" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G562" s="21">
         <v>190</v>
@@ -37524,7 +37521,7 @@
         <v>106</v>
       </c>
       <c r="F564" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G564" s="21">
         <v>800</v>
@@ -37653,7 +37650,7 @@
         <v>58</v>
       </c>
       <c r="F567" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G567" s="21">
         <v>200</v>
@@ -37739,7 +37736,7 @@
         <v>58</v>
       </c>
       <c r="F569" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G569" s="21">
         <v>125</v>
@@ -37868,7 +37865,7 @@
         <v>232</v>
       </c>
       <c r="F572" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G572" s="21">
         <v>250</v>
@@ -37954,7 +37951,7 @@
         <v>232</v>
       </c>
       <c r="F574" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G574" s="21">
         <v>350</v>
@@ -37997,7 +37994,7 @@
         <v>63</v>
       </c>
       <c r="F575" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G575" s="21">
         <v>250</v>
@@ -38126,7 +38123,7 @@
         <v>250</v>
       </c>
       <c r="F578" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G578" s="21">
         <v>285</v>
@@ -38169,7 +38166,7 @@
         <v>58</v>
       </c>
       <c r="F579" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G579" s="21">
         <v>90</v>
@@ -38212,7 +38209,7 @@
         <v>133</v>
       </c>
       <c r="F580" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G580" s="21">
         <v>350</v>
@@ -38255,7 +38252,7 @@
         <v>133</v>
       </c>
       <c r="F581" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G581" s="21"/>
       <c r="H581" s="12" t="s">
@@ -38425,7 +38422,7 @@
         <v>63</v>
       </c>
       <c r="F585" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G585" s="21">
         <v>135</v>
@@ -38511,7 +38508,7 @@
         <v>63</v>
       </c>
       <c r="F587" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G587" s="21">
         <v>190</v>
@@ -38554,7 +38551,7 @@
         <v>2015</v>
       </c>
       <c r="F588" s="17" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G588" s="21">
         <v>200</v>
@@ -38597,7 +38594,7 @@
         <v>106</v>
       </c>
       <c r="F589" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G589" s="21"/>
       <c r="H589" s="12" t="s">
@@ -38724,7 +38721,7 @@
         <v>58</v>
       </c>
       <c r="F592" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G592" s="21">
         <v>200</v>
@@ -38767,7 +38764,7 @@
         <v>63</v>
       </c>
       <c r="F593" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G593" s="21">
         <v>200</v>
@@ -38810,7 +38807,7 @@
         <v>58</v>
       </c>
       <c r="F594" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G594" s="21">
         <v>120</v>
@@ -38853,7 +38850,7 @@
         <v>63</v>
       </c>
       <c r="F595" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G595" s="21">
         <v>490</v>
@@ -39025,7 +39022,7 @@
         <v>58</v>
       </c>
       <c r="F599" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G599" s="21">
         <v>180</v>
@@ -39111,7 +39108,7 @@
         <v>232</v>
       </c>
       <c r="F601" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G601" s="21">
         <v>170</v>
@@ -39154,7 +39151,7 @@
         <v>58</v>
       </c>
       <c r="F602" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G602" s="21">
         <v>130</v>
@@ -39283,7 +39280,7 @@
         <v>63</v>
       </c>
       <c r="F605" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G605" s="21">
         <v>180</v>
@@ -39455,7 +39452,7 @@
         <v>250</v>
       </c>
       <c r="F609" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G609" s="21">
         <v>130</v>
@@ -39498,7 +39495,7 @@
         <v>58</v>
       </c>
       <c r="F610" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G610" s="21">
         <v>180</v>
@@ -39756,7 +39753,7 @@
         <v>232</v>
       </c>
       <c r="F616" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G616" s="21">
         <v>280</v>
@@ -39799,7 +39796,7 @@
         <v>63</v>
       </c>
       <c r="F617" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G617" s="21">
         <v>130</v>
@@ -39842,7 +39839,7 @@
         <v>232</v>
       </c>
       <c r="F618" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G618" s="21">
         <v>250</v>
@@ -39971,7 +39968,7 @@
         <v>58</v>
       </c>
       <c r="F621" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G621" s="21">
         <v>125</v>
@@ -40057,7 +40054,7 @@
         <v>232</v>
       </c>
       <c r="F623" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G623" s="21">
         <v>200</v>
@@ -40143,7 +40140,7 @@
         <v>232</v>
       </c>
       <c r="F625" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G625" s="21">
         <v>250</v>
@@ -40229,7 +40226,7 @@
         <v>63</v>
       </c>
       <c r="F627" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G627" s="21">
         <v>190</v>
@@ -40358,7 +40355,7 @@
         <v>63</v>
       </c>
       <c r="F630" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G630" s="21">
         <v>190</v>
@@ -40401,7 +40398,7 @@
         <v>133</v>
       </c>
       <c r="F631" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G631" s="21">
         <v>180</v>
@@ -40616,7 +40613,7 @@
         <v>232</v>
       </c>
       <c r="F636" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G636" s="21">
         <v>490</v>
@@ -40659,7 +40656,7 @@
         <v>58</v>
       </c>
       <c r="F637" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G637" s="21">
         <v>160</v>
@@ -40788,7 +40785,7 @@
         <v>58</v>
       </c>
       <c r="F640" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G640" s="21">
         <v>80</v>
@@ -40915,7 +40912,7 @@
         <v>2015</v>
       </c>
       <c r="F643" s="17" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G643" s="21">
         <v>190</v>
@@ -41001,7 +40998,7 @@
         <v>63</v>
       </c>
       <c r="F645" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G645" s="21">
         <v>120</v>
@@ -41130,7 +41127,7 @@
         <v>232</v>
       </c>
       <c r="F648" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G648" s="21"/>
       <c r="H648" s="12" t="s">
@@ -41300,7 +41297,7 @@
         <v>232</v>
       </c>
       <c r="F652" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G652" s="21">
         <v>190</v>
@@ -41601,7 +41598,7 @@
         <v>58</v>
       </c>
       <c r="F659" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G659" s="21"/>
       <c r="H659" s="12" t="s">
@@ -41814,7 +41811,7 @@
         <v>106</v>
       </c>
       <c r="F664" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G664" s="21">
         <v>180</v>
@@ -41857,7 +41854,7 @@
         <v>106</v>
       </c>
       <c r="F665" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G665" s="21">
         <v>130</v>
@@ -41900,7 +41897,7 @@
         <v>133</v>
       </c>
       <c r="F666" s="20" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G666" s="21">
         <v>180</v>
@@ -41943,7 +41940,7 @@
         <v>63</v>
       </c>
       <c r="F667" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G667" s="21">
         <v>290</v>
@@ -41986,7 +41983,7 @@
         <v>58</v>
       </c>
       <c r="F668" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G668" s="21">
         <v>120</v>
@@ -42029,7 +42026,7 @@
         <v>58</v>
       </c>
       <c r="F669" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G669" s="21">
         <v>130</v>
@@ -42072,7 +42069,7 @@
         <v>789</v>
       </c>
       <c r="F670" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G670" s="21">
         <v>130</v>
@@ -42201,7 +42198,7 @@
         <v>63</v>
       </c>
       <c r="F673" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G673" s="21">
         <v>90</v>
@@ -42244,7 +42241,7 @@
         <v>58</v>
       </c>
       <c r="F674" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G674" s="21">
         <v>130</v>
@@ -42287,7 +42284,7 @@
         <v>133</v>
       </c>
       <c r="F675" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G675" s="21">
         <v>190</v>
@@ -42330,7 +42327,7 @@
         <v>58</v>
       </c>
       <c r="F676" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G676" s="21">
         <v>90</v>
@@ -42545,7 +42542,7 @@
         <v>63</v>
       </c>
       <c r="F681" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G681" s="21">
         <v>190</v>
@@ -42674,7 +42671,7 @@
         <v>106</v>
       </c>
       <c r="F684" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G684" s="21">
         <v>180</v>
@@ -42717,7 +42714,7 @@
         <v>106</v>
       </c>
       <c r="F685" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G685" s="21">
         <v>190</v>
@@ -42803,7 +42800,7 @@
         <v>522</v>
       </c>
       <c r="F687" s="17" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G687" s="21">
         <v>300</v>
@@ -42846,7 +42843,7 @@
         <v>58</v>
       </c>
       <c r="F688" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G688" s="21">
         <v>180</v>
@@ -42889,7 +42886,7 @@
         <v>106</v>
       </c>
       <c r="F689" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G689" s="21">
         <v>295</v>
@@ -42973,7 +42970,7 @@
         <v>58</v>
       </c>
       <c r="F691" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G691" s="21">
         <v>90</v>
@@ -43059,7 +43056,7 @@
         <v>106</v>
       </c>
       <c r="F693" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G693" s="21">
         <v>280</v>
@@ -43188,7 +43185,7 @@
         <v>2015</v>
       </c>
       <c r="F696" s="17" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G696" s="21">
         <v>400</v>
@@ -43274,7 +43271,7 @@
         <v>63</v>
       </c>
       <c r="F698" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G698" s="21">
         <v>180</v>
@@ -43360,7 +43357,7 @@
         <v>106</v>
       </c>
       <c r="F700" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G700" s="21">
         <v>400</v>
@@ -43489,7 +43486,7 @@
         <v>232</v>
       </c>
       <c r="F703" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G703" s="21">
         <v>370</v>
@@ -43575,7 +43572,7 @@
         <v>232</v>
       </c>
       <c r="F705" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G705" s="21"/>
       <c r="H705" s="12" t="s">
@@ -43616,7 +43613,7 @@
         <v>63</v>
       </c>
       <c r="F706" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G706" s="21">
         <v>180</v>
@@ -43659,7 +43656,7 @@
         <v>522</v>
       </c>
       <c r="F707" s="17" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G707" s="21">
         <v>190</v>
@@ -43702,7 +43699,7 @@
         <v>133</v>
       </c>
       <c r="F708" s="20" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G708" s="21">
         <v>190</v>
@@ -43788,7 +43785,7 @@
         <v>250</v>
       </c>
       <c r="F710" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G710" s="21">
         <v>280</v>
@@ -43831,7 +43828,7 @@
         <v>106</v>
       </c>
       <c r="F711" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G711" s="21">
         <v>400</v>
@@ -43874,7 +43871,7 @@
         <v>106</v>
       </c>
       <c r="F712" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G712" s="21">
         <v>240</v>
@@ -44132,7 +44129,7 @@
         <v>133</v>
       </c>
       <c r="F718" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G718" s="21">
         <v>190</v>
@@ -44175,7 +44172,7 @@
         <v>232</v>
       </c>
       <c r="F719" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G719" s="21">
         <v>190</v>
@@ -44218,7 +44215,7 @@
         <v>106</v>
       </c>
       <c r="F720" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G720" s="21">
         <v>180</v>
@@ -44261,7 +44258,7 @@
         <v>58</v>
       </c>
       <c r="F721" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G721" s="21">
         <v>180</v>
@@ -44304,7 +44301,7 @@
         <v>232</v>
       </c>
       <c r="F722" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G722" s="21">
         <v>190</v>
@@ -44390,7 +44387,7 @@
         <v>58</v>
       </c>
       <c r="F724" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G724" s="21">
         <v>212</v>
@@ -44433,7 +44430,7 @@
         <v>133</v>
       </c>
       <c r="F725" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G725" s="21">
         <v>280</v>
@@ -44562,7 +44559,7 @@
         <v>133</v>
       </c>
       <c r="F728" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G728" s="21"/>
       <c r="H728" s="12" t="s">
@@ -44603,7 +44600,7 @@
         <v>58</v>
       </c>
       <c r="F729" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G729" s="21">
         <v>180</v>
@@ -44646,7 +44643,7 @@
         <v>106</v>
       </c>
       <c r="F730" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G730" s="21">
         <v>190</v>
@@ -44732,7 +44729,7 @@
         <v>133</v>
       </c>
       <c r="F732" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G732" s="21">
         <v>190</v>
@@ -44775,7 +44772,7 @@
         <v>58</v>
       </c>
       <c r="F733" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G733" s="21">
         <v>100</v>
@@ -44818,7 +44815,7 @@
         <v>106</v>
       </c>
       <c r="F734" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G734" s="21">
         <v>190</v>
@@ -44861,7 +44858,7 @@
         <v>133</v>
       </c>
       <c r="F735" s="20" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G735" s="21">
         <v>180</v>
@@ -44947,7 +44944,7 @@
         <v>58</v>
       </c>
       <c r="F737" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G737" s="21"/>
       <c r="H737" s="12" t="s">
@@ -45074,7 +45071,7 @@
         <v>232</v>
       </c>
       <c r="F740" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G740" s="21">
         <v>420</v>
@@ -45203,7 +45200,7 @@
         <v>232</v>
       </c>
       <c r="F743" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G743" s="21">
         <v>400</v>
@@ -45289,7 +45286,7 @@
         <v>789</v>
       </c>
       <c r="F745" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G745" s="21">
         <v>190</v>
@@ -45332,7 +45329,7 @@
         <v>232</v>
       </c>
       <c r="F746" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G746" s="21">
         <v>370</v>
@@ -45418,7 +45415,7 @@
         <v>2015</v>
       </c>
       <c r="F748" s="17" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G748" s="21">
         <v>280</v>
@@ -45461,7 +45458,7 @@
         <v>58</v>
       </c>
       <c r="F749" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G749" s="21">
         <v>400</v>
@@ -45590,7 +45587,7 @@
         <v>133</v>
       </c>
       <c r="F752" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G752" s="21">
         <v>280</v>
@@ -45676,7 +45673,7 @@
         <v>232</v>
       </c>
       <c r="F754" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G754" s="21">
         <v>200</v>
@@ -46018,7 +46015,7 @@
         <v>133</v>
       </c>
       <c r="F762" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G762" s="21">
         <v>200</v>
@@ -46147,7 +46144,7 @@
         <v>63</v>
       </c>
       <c r="F765" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G765" s="21">
         <v>90</v>
@@ -46319,7 +46316,7 @@
         <v>58</v>
       </c>
       <c r="F769" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G769" s="21">
         <v>180</v>
@@ -46491,7 +46488,7 @@
         <v>63</v>
       </c>
       <c r="F773" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G773" s="21">
         <v>180</v>
@@ -46534,7 +46531,7 @@
         <v>133</v>
       </c>
       <c r="F774" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G774" s="21">
         <v>190</v>
@@ -46620,7 +46617,7 @@
         <v>232</v>
       </c>
       <c r="F776" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G776" s="21">
         <v>250</v>
@@ -46706,7 +46703,7 @@
         <v>63</v>
       </c>
       <c r="F778" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G778" s="21">
         <v>130</v>
@@ -46749,7 +46746,7 @@
         <v>232</v>
       </c>
       <c r="F779" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G779" s="21">
         <v>250</v>
@@ -46792,7 +46789,7 @@
         <v>106</v>
       </c>
       <c r="F780" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G780" s="21"/>
       <c r="H780" s="12" t="s">
@@ -46833,7 +46830,7 @@
         <v>232</v>
       </c>
       <c r="F781" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G781" s="21">
         <v>415</v>
@@ -47005,7 +47002,7 @@
         <v>63</v>
       </c>
       <c r="F785" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G785" s="21">
         <v>110</v>
@@ -47046,7 +47043,7 @@
         <v>58</v>
       </c>
       <c r="F786" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G786" s="21"/>
       <c r="H786" s="12" t="s">
@@ -47130,7 +47127,7 @@
         <v>232</v>
       </c>
       <c r="F788" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G788" s="21">
         <v>400</v>
@@ -47259,7 +47256,7 @@
         <v>232</v>
       </c>
       <c r="F791" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G791" s="21">
         <v>400</v>
@@ -47302,7 +47299,7 @@
         <v>63</v>
       </c>
       <c r="F792" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G792" s="21">
         <v>190</v>
@@ -47388,7 +47385,7 @@
         <v>232</v>
       </c>
       <c r="F794" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G794" s="21">
         <v>400</v>
@@ -47431,7 +47428,7 @@
         <v>58</v>
       </c>
       <c r="F795" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G795" s="21">
         <v>200</v>
@@ -47603,7 +47600,7 @@
         <v>133</v>
       </c>
       <c r="F799" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G799" s="21">
         <v>210</v>
@@ -47689,7 +47686,7 @@
         <v>232</v>
       </c>
       <c r="F801" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G801" s="21">
         <v>200</v>
@@ -47732,7 +47729,7 @@
         <v>106</v>
       </c>
       <c r="F802" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G802" s="21">
         <v>200</v>
@@ -47818,7 +47815,7 @@
         <v>232</v>
       </c>
       <c r="F804" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G804" s="21">
         <v>300</v>
@@ -47861,7 +47858,7 @@
         <v>58</v>
       </c>
       <c r="F805" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G805" s="21">
         <v>80</v>
@@ -48076,7 +48073,7 @@
         <v>106</v>
       </c>
       <c r="F810" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G810" s="21">
         <v>190</v>
@@ -48205,7 +48202,7 @@
         <v>232</v>
       </c>
       <c r="F813" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G813" s="21">
         <v>380</v>
@@ -48248,7 +48245,7 @@
         <v>58</v>
       </c>
       <c r="F814" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G814" s="21">
         <v>185</v>
@@ -48291,7 +48288,7 @@
         <v>2015</v>
       </c>
       <c r="F815" s="17" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G815" s="21">
         <v>200</v>
@@ -48420,7 +48417,7 @@
         <v>58</v>
       </c>
       <c r="F818" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G818" s="21">
         <v>130</v>
@@ -48631,7 +48628,7 @@
         <v>63</v>
       </c>
       <c r="F823" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G823" s="21"/>
       <c r="H823" s="12"/>
@@ -48670,7 +48667,7 @@
         <v>58</v>
       </c>
       <c r="F824" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G824" s="21"/>
       <c r="H824" s="12"/>
@@ -48709,7 +48706,7 @@
         <v>232</v>
       </c>
       <c r="F825" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G825" s="21">
         <v>500</v>
@@ -48795,7 +48792,7 @@
         <v>232</v>
       </c>
       <c r="F827" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G827" s="21">
         <v>190</v>
@@ -48838,7 +48835,7 @@
         <v>232</v>
       </c>
       <c r="F828" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G828" s="21">
         <v>400</v>
@@ -48881,7 +48878,7 @@
         <v>232</v>
       </c>
       <c r="F829" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G829" s="21">
         <v>400</v>
@@ -48924,7 +48921,7 @@
         <v>133</v>
       </c>
       <c r="F830" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G830" s="21">
         <v>300</v>
@@ -49096,7 +49093,7 @@
         <v>681</v>
       </c>
       <c r="F834" s="20" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G834" s="21">
         <v>175</v>
@@ -49182,7 +49179,7 @@
         <v>232</v>
       </c>
       <c r="F836" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G836" s="21">
         <v>350</v>
@@ -49225,7 +49222,7 @@
         <v>58</v>
       </c>
       <c r="F837" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G837" s="21">
         <v>190</v>
@@ -49268,7 +49265,7 @@
         <v>63</v>
       </c>
       <c r="F838" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G838" s="21">
         <v>130</v>
@@ -49397,7 +49394,7 @@
         <v>106</v>
       </c>
       <c r="F841" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G841" s="21">
         <v>190</v>
@@ -49440,7 +49437,7 @@
         <v>63</v>
       </c>
       <c r="F842" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G842" s="21">
         <v>190</v>
@@ -49483,7 +49480,7 @@
         <v>58</v>
       </c>
       <c r="F843" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G843" s="21">
         <v>100</v>
@@ -49526,7 +49523,7 @@
         <v>232</v>
       </c>
       <c r="F844" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G844" s="21">
         <v>240</v>
@@ -49612,7 +49609,7 @@
         <v>58</v>
       </c>
       <c r="F846" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G846" s="21">
         <v>180</v>
@@ -49741,7 +49738,7 @@
         <v>232</v>
       </c>
       <c r="F849" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G849" s="21">
         <v>400</v>
@@ -49784,7 +49781,7 @@
         <v>106</v>
       </c>
       <c r="F850" s="20" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G850" s="21">
         <v>190</v>
@@ -49827,7 +49824,7 @@
         <v>58</v>
       </c>
       <c r="F851" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G851" s="21">
         <v>180</v>
@@ -49870,7 +49867,7 @@
         <v>58</v>
       </c>
       <c r="F852" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G852" s="21">
         <v>190</v>
@@ -49956,7 +49953,7 @@
         <v>232</v>
       </c>
       <c r="F854" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G854" s="21">
         <v>420</v>
@@ -50085,7 +50082,7 @@
         <v>232</v>
       </c>
       <c r="F857" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G857" s="21">
         <v>200</v>
@@ -50296,7 +50293,7 @@
         <v>232</v>
       </c>
       <c r="F862" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G862" s="21">
         <v>600</v>
@@ -50464,7 +50461,7 @@
         <v>250</v>
       </c>
       <c r="F866" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G866" s="21">
         <v>300</v>
@@ -50585,7 +50582,7 @@
         <v>58</v>
       </c>
       <c r="F869" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G869" s="21"/>
       <c r="H869" s="12"/>
@@ -50925,7 +50922,7 @@
         <v>133</v>
       </c>
       <c r="F877" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G877" s="21">
         <v>185</v>
@@ -51011,7 +51008,7 @@
         <v>58</v>
       </c>
       <c r="F879" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G879" s="21">
         <v>180</v>
@@ -51054,7 +51051,7 @@
         <v>63</v>
       </c>
       <c r="F880" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G880" s="21">
         <v>190</v>
@@ -51140,7 +51137,7 @@
         <v>106</v>
       </c>
       <c r="F882" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G882" s="21">
         <v>190</v>
@@ -51222,7 +51219,7 @@
         <v>232</v>
       </c>
       <c r="F884" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G884" s="21">
         <v>280</v>
@@ -51390,7 +51387,7 @@
         <v>106</v>
       </c>
       <c r="F888" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G888" s="21">
         <v>300</v>
@@ -51433,7 +51430,7 @@
         <v>232</v>
       </c>
       <c r="F889" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G889" s="21">
         <v>350</v>
@@ -51476,7 +51473,7 @@
         <v>58</v>
       </c>
       <c r="F890" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G890" s="21">
         <v>120</v>
@@ -51519,7 +51516,7 @@
         <v>63</v>
       </c>
       <c r="F891" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G891" s="21">
         <v>180</v>
@@ -51648,7 +51645,7 @@
         <v>133</v>
       </c>
       <c r="F894" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G894" s="21">
         <v>200</v>
@@ -51691,7 +51688,7 @@
         <v>232</v>
       </c>
       <c r="F895" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G895" s="21">
         <v>500</v>
@@ -51734,7 +51731,7 @@
         <v>58</v>
       </c>
       <c r="F896" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G896" s="21"/>
       <c r="H896" s="12"/>
@@ -52025,7 +52022,7 @@
         <v>133</v>
       </c>
       <c r="F903" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G903" s="21">
         <v>295</v>
@@ -52068,7 +52065,7 @@
         <v>63</v>
       </c>
       <c r="F904" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G904" s="21">
         <v>180</v>
@@ -52111,7 +52108,7 @@
         <v>63</v>
       </c>
       <c r="F905" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G905" s="21">
         <v>120</v>
@@ -52154,7 +52151,7 @@
         <v>133</v>
       </c>
       <c r="F906" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G906" s="21">
         <v>280</v>
@@ -52322,7 +52319,7 @@
         <v>106</v>
       </c>
       <c r="F910" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G910" s="21">
         <v>190</v>
@@ -52451,7 +52448,7 @@
         <v>232</v>
       </c>
       <c r="F913" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G913" s="21">
         <v>195</v>
@@ -52494,7 +52491,7 @@
         <v>106</v>
       </c>
       <c r="F914" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G914" s="21">
         <v>185</v>
@@ -52537,7 +52534,7 @@
         <v>58</v>
       </c>
       <c r="F915" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G915" s="21">
         <v>90</v>
@@ -52580,7 +52577,7 @@
         <v>106</v>
       </c>
       <c r="F916" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G916" s="21">
         <v>280</v>
@@ -52623,7 +52620,7 @@
         <v>106</v>
       </c>
       <c r="F917" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G917" s="21">
         <v>180</v>
@@ -52752,7 +52749,7 @@
         <v>63</v>
       </c>
       <c r="F920" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G920" s="21">
         <v>180</v>
@@ -52795,7 +52792,7 @@
         <v>58</v>
       </c>
       <c r="F921" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G921" s="21">
         <v>180</v>
@@ -52838,7 +52835,7 @@
         <v>58</v>
       </c>
       <c r="F922" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G922" s="21"/>
       <c r="H922" s="12" t="s">
@@ -52922,7 +52919,7 @@
         <v>232</v>
       </c>
       <c r="F924" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G924" s="21">
         <v>400</v>
@@ -52965,7 +52962,7 @@
         <v>232</v>
       </c>
       <c r="F925" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G925" s="21">
         <v>190</v>
@@ -53051,7 +53048,7 @@
         <v>58</v>
       </c>
       <c r="F927" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G927" s="21">
         <v>180</v>
@@ -53094,7 +53091,7 @@
         <v>133</v>
       </c>
       <c r="F928" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G928" s="21">
         <v>390</v>
@@ -53137,7 +53134,7 @@
         <v>232</v>
       </c>
       <c r="F929" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G929" s="21">
         <v>200</v>
@@ -53266,7 +53263,7 @@
         <v>133</v>
       </c>
       <c r="F932" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G932" s="21">
         <v>350</v>
@@ -53524,7 +53521,7 @@
         <v>232</v>
       </c>
       <c r="F938" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G938" s="21">
         <v>250</v>
@@ -53567,7 +53564,7 @@
         <v>789</v>
       </c>
       <c r="F939" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G939" s="21">
         <v>190</v>
@@ -53653,7 +53650,7 @@
         <v>133</v>
       </c>
       <c r="F941" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G941" s="21"/>
       <c r="H941" s="12" t="s">
@@ -53823,7 +53820,7 @@
         <v>250</v>
       </c>
       <c r="F945" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G945" s="21">
         <v>350</v>
@@ -53907,7 +53904,7 @@
         <v>133</v>
       </c>
       <c r="F947" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G947" s="21">
         <v>180</v>
@@ -54079,7 +54076,7 @@
         <v>250</v>
       </c>
       <c r="F951" s="20" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G951" s="21">
         <v>380</v>
@@ -54122,7 +54119,7 @@
         <v>106</v>
       </c>
       <c r="F952" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G952" s="21">
         <v>180</v>
@@ -54421,7 +54418,7 @@
         <v>106</v>
       </c>
       <c r="F959" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G959" s="21">
         <v>290</v>
@@ -54507,7 +54504,7 @@
         <v>106</v>
       </c>
       <c r="F961" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G961" s="21"/>
       <c r="H961" s="12" t="s">
@@ -54718,7 +54715,7 @@
         <v>133</v>
       </c>
       <c r="F966" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G966" s="21">
         <v>380</v>
@@ -54802,7 +54799,7 @@
         <v>58</v>
       </c>
       <c r="F968" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G968" s="21">
         <v>350</v>
@@ -55013,7 +55010,7 @@
         <v>63</v>
       </c>
       <c r="F973" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G973" s="21"/>
       <c r="H973" s="12" t="s">
@@ -55054,7 +55051,7 @@
         <v>133</v>
       </c>
       <c r="F974" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G974" s="21">
         <v>280</v>
@@ -55183,7 +55180,7 @@
         <v>133</v>
       </c>
       <c r="F977" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G977" s="21">
         <v>190</v>
@@ -55226,7 +55223,7 @@
         <v>63</v>
       </c>
       <c r="F978" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G978" s="21">
         <v>190</v>
@@ -55269,7 +55266,7 @@
         <v>58</v>
       </c>
       <c r="F979" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G979" s="21">
         <v>180</v>
@@ -55312,7 +55309,7 @@
         <v>133</v>
       </c>
       <c r="F980" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G980" s="21">
         <v>400</v>
@@ -55398,7 +55395,7 @@
         <v>63</v>
       </c>
       <c r="F982" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G982" s="21">
         <v>180</v>
@@ -55908,7 +55905,7 @@
         <v>2015</v>
       </c>
       <c r="F994" s="17" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G994" s="21">
         <v>200</v>
@@ -56076,7 +56073,7 @@
         <v>58</v>
       </c>
       <c r="F998" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G998" s="21">
         <v>200</v>
@@ -56488,7 +56485,7 @@
         <v>133</v>
       </c>
       <c r="F1008" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G1008" s="21">
         <v>190</v>
@@ -56613,7 +56610,7 @@
         <v>58</v>
       </c>
       <c r="F1011" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1011" s="21">
         <v>180</v>
@@ -56699,7 +56696,7 @@
         <v>522</v>
       </c>
       <c r="F1013" s="17" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="G1013" s="21">
         <v>180</v>
@@ -56906,7 +56903,7 @@
         <v>2015</v>
       </c>
       <c r="F1018" s="17" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="G1018" s="21">
         <v>350</v>
@@ -58198,7 +58195,7 @@
         <v>232</v>
       </c>
       <c r="F1050" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1050" s="21">
         <v>680</v>
@@ -58440,7 +58437,7 @@
         <v>250</v>
       </c>
       <c r="F1056" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G1056" s="21">
         <v>350</v>
@@ -58854,7 +58851,7 @@
         <v>232</v>
       </c>
       <c r="F1066" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1066" s="21">
         <v>400</v>
@@ -58897,7 +58894,7 @@
         <v>232</v>
       </c>
       <c r="F1067" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1067" s="21">
         <v>400</v>
@@ -59100,7 +59097,7 @@
         <v>106</v>
       </c>
       <c r="F1072" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G1072" s="21">
         <v>400</v>
@@ -59260,7 +59257,7 @@
         <v>106</v>
       </c>
       <c r="F1076" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G1076" s="21"/>
       <c r="H1076" s="12"/>
@@ -59342,7 +59339,7 @@
         <v>232</v>
       </c>
       <c r="F1078" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1078" s="21">
         <v>330</v>
@@ -59385,7 +59382,7 @@
         <v>232</v>
       </c>
       <c r="F1079" s="20" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1079" s="21">
         <v>190</v>
@@ -59592,7 +59589,7 @@
         <v>133</v>
       </c>
       <c r="F1084" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G1084" s="21">
         <v>200</v>
@@ -59635,7 +59632,7 @@
         <v>133</v>
       </c>
       <c r="F1085" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G1085" s="21">
         <v>180</v>
@@ -59717,7 +59714,7 @@
         <v>232</v>
       </c>
       <c r="F1087" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1087" s="21">
         <v>190</v>
@@ -59881,7 +59878,7 @@
         <v>106</v>
       </c>
       <c r="F1091" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G1091" s="21">
         <v>270</v>
@@ -60209,7 +60206,7 @@
         <v>106</v>
       </c>
       <c r="F1099" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G1099" s="21">
         <v>270</v>
@@ -60420,7 +60417,7 @@
         <v>250</v>
       </c>
       <c r="F1104" s="17" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="G1104" s="21">
         <v>290</v>
@@ -60463,7 +60460,7 @@
         <v>63</v>
       </c>
       <c r="F1105" s="17" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="G1105" s="21">
         <v>180</v>
@@ -60584,7 +60581,7 @@
         <v>58</v>
       </c>
       <c r="F1108" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1108" s="21">
         <v>80</v>
@@ -60627,7 +60624,7 @@
         <v>58</v>
       </c>
       <c r="F1109" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1109" s="21">
         <v>90</v>
@@ -60670,7 +60667,7 @@
         <v>58</v>
       </c>
       <c r="F1110" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1110" s="21">
         <v>135</v>
@@ -60713,7 +60710,7 @@
         <v>58</v>
       </c>
       <c r="F1111" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1111" s="21">
         <v>190</v>
@@ -61043,7 +61040,7 @@
         <v>58</v>
       </c>
       <c r="F1119" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1119" s="21">
         <v>130</v>
@@ -61168,7 +61165,7 @@
         <v>58</v>
       </c>
       <c r="F1122" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1122" s="21">
         <v>135</v>
@@ -61211,7 +61208,7 @@
         <v>58</v>
       </c>
       <c r="F1123" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1123" s="21">
         <v>166</v>
@@ -61295,7 +61292,7 @@
         <v>58</v>
       </c>
       <c r="F1125" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1125" s="21">
         <v>190</v>
@@ -61422,7 +61419,7 @@
         <v>58</v>
       </c>
       <c r="F1128" s="17" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="G1128" s="21">
         <v>195</v>
@@ -62051,7 +62048,7 @@
         <v>106</v>
       </c>
       <c r="F1143" s="17" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="G1143" s="21">
         <v>500</v>
@@ -62385,7 +62382,7 @@
         <v>133</v>
       </c>
       <c r="F1151" s="20" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G1151" s="21">
         <v>200</v>
@@ -62692,11 +62689,11 @@
         <v>0</v>
       </c>
       <c r="L1158" s="12">
-        <f t="shared" ref="L1158:L1221" si="36">K1158-J1158</f>
+        <f t="shared" ref="L1158:L1220" si="36">K1158-J1158</f>
         <v>-3.3</v>
       </c>
       <c r="M1158" s="15">
-        <f t="shared" ref="M1158:M1221" si="37">L1158/J1158</f>
+        <f t="shared" ref="M1158:M1220" si="37">L1158/J1158</f>
         <v>-1</v>
       </c>
     </row>
@@ -62717,7 +62714,7 @@
         <v>232</v>
       </c>
       <c r="F1159" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1159" s="21">
         <v>290</v>
@@ -62760,7 +62757,7 @@
         <v>133</v>
       </c>
       <c r="F1160" s="17" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="G1160" s="21">
         <v>290</v>
@@ -62846,7 +62843,7 @@
         <v>232</v>
       </c>
       <c r="F1162" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1162" s="21">
         <v>370</v>
@@ -62889,7 +62886,7 @@
         <v>232</v>
       </c>
       <c r="F1163" s="17" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="G1163" s="21">
         <v>490</v>
@@ -63087,7 +63084,7 @@
     </row>
     <row r="1168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1168" s="16" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="B1168" s="22" t="s">
         <v>601</v>
@@ -63109,21 +63106,21 @@
         <v>125</v>
       </c>
       <c r="I1168" s="19" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="J1168" s="19">
-        <v>0</v>
+        <v>17.199999999999996</v>
       </c>
       <c r="K1168" s="19">
         <v>0</v>
       </c>
       <c r="L1168" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1168" s="15" t="e">
+        <v>-17.199999999999996</v>
+      </c>
+      <c r="M1168" s="15">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1169" spans="1:13" x14ac:dyDescent="0.25">
@@ -63150,218 +63147,220 @@
         <v>125</v>
       </c>
       <c r="I1169" s="19" t="s">
-        <v>3964</v>
+        <v>3966</v>
       </c>
       <c r="J1169" s="19">
-        <v>17.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="K1169" s="19">
         <v>0</v>
       </c>
       <c r="L1169" s="12">
         <f t="shared" si="36"/>
-        <v>-17.199999999999996</v>
-      </c>
-      <c r="M1169" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1169" s="15" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1170" s="16" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B1170" s="17" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C1170" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1170" s="17" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E1170" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1170" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1170" s="21">
+        <v>200</v>
+      </c>
+      <c r="H1170" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1170" s="19" t="s">
+        <v>3970</v>
+      </c>
+      <c r="J1170" s="19">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K1170" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1170" s="12">
+        <f t="shared" si="36"/>
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="M1170" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1170" s="16" t="s">
-        <v>3966</v>
-      </c>
-      <c r="B1170" s="22" t="s">
+    <row r="1171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1171" s="16" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B1171" s="17" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C1171" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1171" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="C1170" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1170" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1170" s="22" t="s">
+      <c r="E1171" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="F1170" s="22" t="s">
+      <c r="F1171" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="G1170" s="21"/>
-      <c r="H1170" s="12" t="s">
+      <c r="G1171" s="21">
+        <v>400</v>
+      </c>
+      <c r="H1171" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1170" s="19" t="s">
-        <v>3967</v>
-      </c>
-      <c r="J1170" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1170" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1170" s="12">
+      <c r="I1171" s="19" t="s">
+        <v>3973</v>
+      </c>
+      <c r="J1171" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1171" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1171" s="12">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M1170" s="15" t="e">
+      <c r="M1171" s="15" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1171" s="16" t="s">
-        <v>3968</v>
-      </c>
-      <c r="B1171" s="17" t="s">
-        <v>3969</v>
-      </c>
-      <c r="C1171" s="18" t="s">
+    <row r="1172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1172" s="16" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1172" s="17" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C1172" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D1171" s="17" t="s">
-        <v>3970</v>
-      </c>
-      <c r="E1171" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1171" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1171" s="21">
-        <v>200</v>
-      </c>
-      <c r="H1171" s="12" t="s">
+      <c r="D1172" s="17" t="s">
+        <v>3976</v>
+      </c>
+      <c r="E1172" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1172" s="17" t="s">
+        <v>4261</v>
+      </c>
+      <c r="G1172" s="21">
+        <v>180</v>
+      </c>
+      <c r="H1172" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1171" s="19" t="s">
-        <v>3971</v>
-      </c>
-      <c r="J1171" s="19">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="K1171" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1171" s="12">
+      <c r="I1172" s="19" t="s">
+        <v>3977</v>
+      </c>
+      <c r="J1172" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K1172" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1172" s="12">
         <f t="shared" si="36"/>
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="M1171" s="15">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="M1172" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1172" s="16" t="s">
-        <v>3972</v>
-      </c>
-      <c r="B1172" s="17" t="s">
-        <v>3973</v>
-      </c>
-      <c r="C1172" s="18" t="s">
+    <row r="1173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1173" s="16" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B1173" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1173" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D1172" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1172" s="22" t="s">
+      <c r="D1173" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1173" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="F1172" s="22" t="s">
+      <c r="F1173" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="G1172" s="21">
-        <v>400</v>
-      </c>
-      <c r="H1172" s="12" t="s">
+      <c r="G1173" s="21"/>
+      <c r="H1173" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1172" s="19" t="s">
-        <v>3974</v>
-      </c>
-      <c r="J1172" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1172" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1172" s="12">
+      <c r="I1173" s="19" t="s">
+        <v>3979</v>
+      </c>
+      <c r="J1173" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1173" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1173" s="12">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M1172" s="15" t="e">
+      <c r="M1173" s="15" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1173" s="16" t="s">
-        <v>3975</v>
-      </c>
-      <c r="B1173" s="17" t="s">
-        <v>3976</v>
-      </c>
-      <c r="C1173" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1173" s="17" t="s">
-        <v>3977</v>
-      </c>
-      <c r="E1173" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1173" s="17" t="s">
-        <v>4262</v>
-      </c>
-      <c r="G1173" s="21">
-        <v>180</v>
-      </c>
-      <c r="H1173" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1173" s="19" t="s">
-        <v>3978</v>
-      </c>
-      <c r="J1173" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K1173" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1173" s="12">
-        <f t="shared" si="36"/>
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="M1173" s="15">
-        <f t="shared" si="37"/>
-        <v>-1</v>
-      </c>
-    </row>
     <row r="1174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1174" s="16" t="s">
-        <v>3979</v>
-      </c>
-      <c r="B1174" s="22" t="s">
-        <v>601</v>
+        <v>3980</v>
+      </c>
+      <c r="B1174" s="17" t="s">
+        <v>3981</v>
       </c>
       <c r="C1174" s="18" t="s">
-        <v>184</v>
+        <v>1351</v>
       </c>
       <c r="D1174" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1174" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1174" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1174" s="21"/>
+        <v>3982</v>
+      </c>
+      <c r="E1174" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1174" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1174" s="21">
+        <v>345</v>
+      </c>
       <c r="H1174" s="12" t="s">
         <v>125</v>
       </c>
       <c r="I1174" s="19" t="s">
-        <v>3980</v>
+        <v>3983</v>
       </c>
       <c r="J1174" s="19">
         <v>0</v>
@@ -63380,50 +63379,48 @@
     </row>
     <row r="1175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1175" s="16" t="s">
-        <v>3981</v>
-      </c>
-      <c r="B1175" s="17" t="s">
-        <v>3982</v>
+        <v>3984</v>
+      </c>
+      <c r="B1175" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1175" s="18" t="s">
         <v>1351</v>
       </c>
       <c r="D1175" s="17" t="s">
-        <v>3983</v>
-      </c>
-      <c r="E1175" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1175" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="G1175" s="21">
-        <v>345</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E1175" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1175" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1175" s="21"/>
       <c r="H1175" s="12" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="I1175" s="19" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="J1175" s="19">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K1175" s="19">
         <v>0</v>
       </c>
       <c r="L1175" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1175" s="15" t="e">
+        <v>-4.5</v>
+      </c>
+      <c r="M1175" s="15">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1176" s="16" t="s">
-        <v>3985</v>
+        <v>2768</v>
       </c>
       <c r="B1176" s="22" t="s">
         <v>601</v>
@@ -63448,14 +63445,14 @@
         <v>3986</v>
       </c>
       <c r="J1176" s="19">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="K1176" s="19">
         <v>0</v>
       </c>
       <c r="L1176" s="12">
         <f t="shared" si="36"/>
-        <v>-4.5</v>
+        <v>-2.8</v>
       </c>
       <c r="M1176" s="15">
         <f t="shared" si="37"/>
@@ -63464,91 +63461,91 @@
     </row>
     <row r="1177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1177" s="16" t="s">
-        <v>2768</v>
-      </c>
-      <c r="B1177" s="22" t="s">
-        <v>601</v>
+        <v>3987</v>
+      </c>
+      <c r="B1177" s="17" t="s">
+        <v>3988</v>
       </c>
       <c r="C1177" s="18" t="s">
-        <v>1351</v>
+        <v>1207</v>
       </c>
       <c r="D1177" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1177" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1177" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1177" s="21"/>
+        <v>1131</v>
+      </c>
+      <c r="E1177" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1177" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1177" s="21">
+        <v>420</v>
+      </c>
       <c r="H1177" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1177" s="19" t="s">
-        <v>3987</v>
+        <v>3989</v>
       </c>
       <c r="J1177" s="19">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K1177" s="19">
         <v>0</v>
       </c>
       <c r="L1177" s="12">
         <f t="shared" si="36"/>
-        <v>-2.8</v>
-      </c>
-      <c r="M1177" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1177" s="15" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1178" s="16" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B1178" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1178" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1178" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1178" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1178" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1178" s="21"/>
+      <c r="H1178" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1178" s="19" t="s">
+        <v>3991</v>
+      </c>
+      <c r="J1178" s="19">
+        <v>8.1</v>
+      </c>
+      <c r="K1178" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1178" s="12">
+        <f t="shared" si="36"/>
+        <v>-8.1</v>
+      </c>
+      <c r="M1178" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1178" s="16" t="s">
-        <v>3988</v>
-      </c>
-      <c r="B1178" s="17" t="s">
-        <v>3989</v>
-      </c>
-      <c r="C1178" s="18" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D1178" s="17" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E1178" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1178" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="G1178" s="21">
-        <v>420</v>
-      </c>
-      <c r="H1178" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1178" s="19" t="s">
-        <v>3990</v>
-      </c>
-      <c r="J1178" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1178" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1178" s="12">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1178" s="15" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="1179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1179" s="16" t="s">
-        <v>3991</v>
+        <v>3992</v>
       </c>
       <c r="B1179" s="22" t="s">
         <v>601</v>
@@ -63570,17 +63567,17 @@
         <v>19</v>
       </c>
       <c r="I1179" s="19" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="J1179" s="19">
-        <v>8.1</v>
+        <v>0.3</v>
       </c>
       <c r="K1179" s="19">
         <v>0</v>
       </c>
       <c r="L1179" s="12">
         <f t="shared" si="36"/>
-        <v>-8.1</v>
+        <v>-0.3</v>
       </c>
       <c r="M1179" s="15">
         <f t="shared" si="37"/>
@@ -63589,7 +63586,7 @@
     </row>
     <row r="1180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1180" s="16" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="B1180" s="22" t="s">
         <v>601</v>
@@ -63611,48 +63608,50 @@
         <v>19</v>
       </c>
       <c r="I1180" s="19" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="J1180" s="19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K1180" s="19">
         <v>0</v>
       </c>
       <c r="L1180" s="12">
         <f t="shared" si="36"/>
-        <v>-0.3</v>
-      </c>
-      <c r="M1180" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1180" s="15" t="e">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="1181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1181" s="16" t="s">
-        <v>3995</v>
-      </c>
-      <c r="B1181" s="22" t="s">
-        <v>601</v>
+        <v>3996</v>
+      </c>
+      <c r="B1181" s="17" t="s">
+        <v>3997</v>
       </c>
       <c r="C1181" s="18" t="s">
-        <v>451</v>
+        <v>997</v>
       </c>
       <c r="D1181" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1181" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1181" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1181" s="21"/>
+        <v>341</v>
+      </c>
+      <c r="E1181" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1181" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1181" s="21">
+        <v>300</v>
+      </c>
       <c r="H1181" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1181" s="19" t="s">
-        <v>3996</v>
+        <v>3998</v>
       </c>
       <c r="J1181" s="19">
         <v>0</v>
@@ -63671,22 +63670,22 @@
     </row>
     <row r="1182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1182" s="16" t="s">
-        <v>3997</v>
+        <v>3999</v>
       </c>
       <c r="B1182" s="17" t="s">
-        <v>3998</v>
+        <v>4000</v>
       </c>
       <c r="C1182" s="18" t="s">
         <v>997</v>
       </c>
       <c r="D1182" s="17" t="s">
-        <v>341</v>
+        <v>552</v>
       </c>
       <c r="E1182" s="17" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="F1182" s="17" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="G1182" s="21">
         <v>300</v>
@@ -63695,7 +63694,7 @@
         <v>19</v>
       </c>
       <c r="I1182" s="19" t="s">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="J1182" s="19">
         <v>0</v>
@@ -63714,170 +63713,170 @@
     </row>
     <row r="1183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1183" s="16" t="s">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="B1183" s="17" t="s">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="C1183" s="18" t="s">
-        <v>997</v>
+        <v>395</v>
       </c>
       <c r="D1183" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="E1183" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1183" s="17" t="s">
-        <v>194</v>
+        <v>4004</v>
+      </c>
+      <c r="E1183" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1183" s="20" t="s">
+        <v>405</v>
       </c>
       <c r="G1183" s="21">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="H1183" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1183" s="19" t="s">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="J1183" s="19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K1183" s="19">
         <v>0</v>
       </c>
       <c r="L1183" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1183" s="15" t="e">
+        <v>-0.2</v>
+      </c>
+      <c r="M1183" s="15">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1184" s="16" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B1184" s="17" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C1184" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1184" s="17" t="s">
+        <v>4008</v>
+      </c>
+      <c r="E1184" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1184" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1184" s="21">
+        <v>370</v>
+      </c>
+      <c r="H1184" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1184" s="19" t="s">
+        <v>4009</v>
+      </c>
+      <c r="J1184" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1184" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1184" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M1184" s="15" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1184" s="16" t="s">
-        <v>4003</v>
-      </c>
-      <c r="B1184" s="17" t="s">
-        <v>4004</v>
-      </c>
-      <c r="C1184" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D1184" s="17" t="s">
-        <v>4005</v>
-      </c>
-      <c r="E1184" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1184" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1184" s="21">
-        <v>226</v>
-      </c>
-      <c r="H1184" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1184" s="19" t="s">
-        <v>4006</v>
-      </c>
-      <c r="J1184" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K1184" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1184" s="12">
+    <row r="1185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1185" s="16" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B1185" s="17" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1185" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1185" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1185" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1185" s="17" t="s">
+        <v>4266</v>
+      </c>
+      <c r="G1185" s="21">
+        <v>180</v>
+      </c>
+      <c r="H1185" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1185" s="19" t="s">
+        <v>4012</v>
+      </c>
+      <c r="J1185" s="19">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K1185" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1185" s="12">
         <f t="shared" si="36"/>
-        <v>-0.2</v>
-      </c>
-      <c r="M1184" s="15">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="M1185" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1185" s="16" t="s">
-        <v>4007</v>
-      </c>
-      <c r="B1185" s="17" t="s">
-        <v>4008</v>
-      </c>
-      <c r="C1185" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1185" s="17" t="s">
-        <v>4009</v>
-      </c>
-      <c r="E1185" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1185" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1185" s="21">
-        <v>370</v>
-      </c>
-      <c r="H1185" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1185" s="19" t="s">
-        <v>4010</v>
-      </c>
-      <c r="J1185" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1185" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1185" s="12">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1185" s="15" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="1186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1186" s="16" t="s">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="B1186" s="17" t="s">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="C1186" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1186" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1186" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1186" s="17" t="s">
-        <v>4267</v>
+        <v>4015</v>
+      </c>
+      <c r="E1186" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1186" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="G1186" s="21">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="H1186" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1186" s="19" t="s">
-        <v>4013</v>
+        <v>4016</v>
       </c>
       <c r="J1186" s="19">
-        <v>0.60000000000000009</v>
+        <v>0.8</v>
       </c>
       <c r="K1186" s="19">
         <v>0</v>
       </c>
       <c r="L1186" s="12">
         <f t="shared" si="36"/>
-        <v>-0.60000000000000009</v>
+        <v>-0.8</v>
       </c>
       <c r="M1186" s="15">
         <f t="shared" si="37"/>
@@ -63886,41 +63885,41 @@
     </row>
     <row r="1187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1187" s="16" t="s">
-        <v>4014</v>
+        <v>4017</v>
       </c>
       <c r="B1187" s="17" t="s">
-        <v>4015</v>
+        <v>4018</v>
       </c>
       <c r="C1187" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1187" s="17" t="s">
-        <v>4016</v>
-      </c>
-      <c r="E1187" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1187" s="20" t="s">
-        <v>194</v>
+        <v>1549</v>
+      </c>
+      <c r="E1187" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1187" s="17" t="s">
+        <v>878</v>
       </c>
       <c r="G1187" s="21">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="H1187" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1187" s="19" t="s">
-        <v>4017</v>
+        <v>4019</v>
       </c>
       <c r="J1187" s="19">
-        <v>0.8</v>
+        <v>14</v>
       </c>
       <c r="K1187" s="19">
         <v>0</v>
       </c>
       <c r="L1187" s="12">
         <f t="shared" si="36"/>
-        <v>-0.8</v>
+        <v>-14</v>
       </c>
       <c r="M1187" s="15">
         <f t="shared" si="37"/>
@@ -63929,16 +63928,16 @@
     </row>
     <row r="1188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1188" s="16" t="s">
-        <v>4018</v>
+        <v>4020</v>
       </c>
       <c r="B1188" s="17" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="C1188" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1188" s="17" t="s">
-        <v>1549</v>
+        <v>74</v>
       </c>
       <c r="E1188" s="17" t="s">
         <v>24</v>
@@ -63953,17 +63952,17 @@
         <v>19</v>
       </c>
       <c r="I1188" s="19" t="s">
-        <v>4020</v>
+        <v>4022</v>
       </c>
       <c r="J1188" s="19">
-        <v>14</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="K1188" s="19">
         <v>0</v>
       </c>
       <c r="L1188" s="12">
         <f t="shared" si="36"/>
-        <v>-14</v>
+        <v>-6.0000000000000009</v>
       </c>
       <c r="M1188" s="15">
         <f t="shared" si="37"/>
@@ -63972,72 +63971,72 @@
     </row>
     <row r="1189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1189" s="16" t="s">
-        <v>4021</v>
-      </c>
-      <c r="B1189" s="17" t="s">
-        <v>4022</v>
+        <v>4023</v>
+      </c>
+      <c r="B1189" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1189" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1189" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1189" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1189" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="G1189" s="21">
-        <v>400</v>
-      </c>
+        <v>3712</v>
+      </c>
+      <c r="E1189" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1189" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1189" s="21"/>
       <c r="H1189" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1189" s="19" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="J1189" s="19">
-        <v>6.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="K1189" s="19">
         <v>0</v>
       </c>
       <c r="L1189" s="12">
         <f t="shared" si="36"/>
-        <v>-6.0000000000000009</v>
-      </c>
-      <c r="M1189" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1189" s="15" t="e">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="1190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1190" s="16" t="s">
-        <v>4024</v>
-      </c>
-      <c r="B1190" s="22" t="s">
-        <v>601</v>
+        <v>3373</v>
+      </c>
+      <c r="B1190" s="17" t="s">
+        <v>4025</v>
       </c>
       <c r="C1190" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1190" s="17" t="s">
-        <v>3712</v>
-      </c>
-      <c r="E1190" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1190" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1190" s="21"/>
+        <v>3375</v>
+      </c>
+      <c r="E1190" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1190" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1190" s="21">
+        <v>400</v>
+      </c>
       <c r="H1190" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1190" s="19" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="J1190" s="19">
         <v>0</v>
@@ -64056,16 +64055,16 @@
     </row>
     <row r="1191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1191" s="16" t="s">
-        <v>3373</v>
+        <v>803</v>
       </c>
       <c r="B1191" s="17" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="C1191" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1191" s="17" t="s">
-        <v>3375</v>
+        <v>878</v>
       </c>
       <c r="E1191" s="17" t="s">
         <v>24</v>
@@ -64074,13 +64073,13 @@
         <v>878</v>
       </c>
       <c r="G1191" s="21">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H1191" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1191" s="19" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="J1191" s="19">
         <v>0</v>
@@ -64099,16 +64098,16 @@
     </row>
     <row r="1192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1192" s="16" t="s">
-        <v>803</v>
+        <v>21</v>
       </c>
       <c r="B1192" s="17" t="s">
-        <v>4028</v>
+        <v>22</v>
       </c>
       <c r="C1192" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1192" s="17" t="s">
-        <v>878</v>
+        <v>23</v>
       </c>
       <c r="E1192" s="17" t="s">
         <v>24</v>
@@ -64117,7 +64116,7 @@
         <v>878</v>
       </c>
       <c r="G1192" s="21">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="H1192" s="12" t="s">
         <v>19</v>
@@ -64126,18 +64125,18 @@
         <v>4029</v>
       </c>
       <c r="J1192" s="19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="K1192" s="19">
         <v>0</v>
       </c>
       <c r="L1192" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1192" s="15" t="e">
+        <v>-1.3</v>
+      </c>
+      <c r="M1192" s="15">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.25">
@@ -64169,26 +64168,26 @@
         <v>4030</v>
       </c>
       <c r="J1193" s="19">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="K1193" s="19">
         <v>0</v>
       </c>
       <c r="L1193" s="12">
         <f t="shared" si="36"/>
-        <v>-1.3</v>
-      </c>
-      <c r="M1193" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1193" s="15" t="e">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="1194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1194" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B1194" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1194" s="18" t="s">
         <v>16</v>
@@ -64203,7 +64202,7 @@
         <v>878</v>
       </c>
       <c r="G1194" s="21">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="H1194" s="12" t="s">
         <v>19</v>
@@ -64228,10 +64227,10 @@
     </row>
     <row r="1195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1195" s="16" t="s">
-        <v>29</v>
+        <v>4032</v>
       </c>
       <c r="B1195" s="17" t="s">
-        <v>30</v>
+        <v>4033</v>
       </c>
       <c r="C1195" s="18" t="s">
         <v>16</v>
@@ -64246,35 +64245,35 @@
         <v>878</v>
       </c>
       <c r="G1195" s="21">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="H1195" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1195" s="19" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="J1195" s="19">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="K1195" s="19">
         <v>0</v>
       </c>
       <c r="L1195" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1195" s="15" t="e">
+        <v>-21.3</v>
+      </c>
+      <c r="M1195" s="15">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1196" s="16" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
       <c r="B1196" s="17" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="C1196" s="18" t="s">
         <v>16</v>
@@ -64289,23 +64288,23 @@
         <v>878</v>
       </c>
       <c r="G1196" s="21">
-        <v>850</v>
+        <v>1275</v>
       </c>
       <c r="H1196" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1196" s="19" t="s">
-        <v>4035</v>
+        <v>4037</v>
       </c>
       <c r="J1196" s="19">
-        <v>21.3</v>
+        <v>34.4</v>
       </c>
       <c r="K1196" s="19">
         <v>0</v>
       </c>
       <c r="L1196" s="12">
         <f t="shared" si="36"/>
-        <v>-21.3</v>
+        <v>-34.4</v>
       </c>
       <c r="M1196" s="15">
         <f t="shared" si="37"/>
@@ -64314,10 +64313,10 @@
     </row>
     <row r="1197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1197" s="16" t="s">
-        <v>4036</v>
+        <v>4038</v>
       </c>
       <c r="B1197" s="17" t="s">
-        <v>4037</v>
+        <v>4039</v>
       </c>
       <c r="C1197" s="18" t="s">
         <v>16</v>
@@ -64332,23 +64331,23 @@
         <v>878</v>
       </c>
       <c r="G1197" s="21">
-        <v>1275</v>
+        <v>1500</v>
       </c>
       <c r="H1197" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1197" s="19" t="s">
-        <v>4038</v>
+        <v>4040</v>
       </c>
       <c r="J1197" s="19">
-        <v>34.4</v>
+        <v>41649</v>
       </c>
       <c r="K1197" s="19">
         <v>0</v>
       </c>
       <c r="L1197" s="12">
         <f t="shared" si="36"/>
-        <v>-34.4</v>
+        <v>-41649</v>
       </c>
       <c r="M1197" s="15">
         <f t="shared" si="37"/>
@@ -64357,10 +64356,10 @@
     </row>
     <row r="1198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1198" s="16" t="s">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="B1198" s="17" t="s">
-        <v>4040</v>
+        <v>631</v>
       </c>
       <c r="C1198" s="18" t="s">
         <v>16</v>
@@ -64375,23 +64374,23 @@
         <v>878</v>
       </c>
       <c r="G1198" s="21">
-        <v>1500</v>
+        <v>630</v>
       </c>
       <c r="H1198" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1198" s="19" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="J1198" s="19">
-        <v>41649</v>
+        <v>119.80000000000001</v>
       </c>
       <c r="K1198" s="19">
         <v>0</v>
       </c>
       <c r="L1198" s="12">
         <f t="shared" si="36"/>
-        <v>-41649</v>
+        <v>-119.80000000000001</v>
       </c>
       <c r="M1198" s="15">
         <f t="shared" si="37"/>
@@ -64400,127 +64399,125 @@
     </row>
     <row r="1199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1199" s="16" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="B1199" s="17" t="s">
-        <v>631</v>
+        <v>4044</v>
       </c>
       <c r="C1199" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1199" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1199" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1199" s="17" t="s">
-        <v>878</v>
+        <v>601</v>
+      </c>
+      <c r="E1199" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1199" s="22" t="s">
+        <v>602</v>
       </c>
       <c r="G1199" s="21">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="H1199" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1199" s="19" t="s">
-        <v>4043</v>
+        <v>4045</v>
       </c>
       <c r="J1199" s="19">
-        <v>119.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="K1199" s="19">
         <v>0</v>
       </c>
       <c r="L1199" s="12">
         <f t="shared" si="36"/>
-        <v>-119.80000000000001</v>
-      </c>
-      <c r="M1199" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1199" s="15" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1200" s="16" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B1200" s="17" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C1200" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1200" s="17" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E1200" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1200" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1200" s="21">
+        <v>400</v>
+      </c>
+      <c r="H1200" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1200" s="19" t="s">
+        <v>4049</v>
+      </c>
+      <c r="J1200" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="K1200" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1200" s="12">
+        <f t="shared" si="36"/>
+        <v>-0.8</v>
+      </c>
+      <c r="M1200" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1200" s="16" t="s">
-        <v>4044</v>
-      </c>
-      <c r="B1200" s="17" t="s">
-        <v>4045</v>
-      </c>
-      <c r="C1200" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1200" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1200" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1200" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1200" s="21">
-        <v>400</v>
-      </c>
-      <c r="H1200" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1200" s="19" t="s">
-        <v>4046</v>
-      </c>
-      <c r="J1200" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1200" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1200" s="12">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1200" s="15" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="1201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1201" s="16" t="s">
-        <v>4047</v>
-      </c>
-      <c r="B1201" s="17" t="s">
-        <v>4048</v>
+        <v>4050</v>
+      </c>
+      <c r="B1201" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1201" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1201" s="17" t="s">
-        <v>4049</v>
-      </c>
-      <c r="E1201" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1201" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="G1201" s="21">
-        <v>400</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E1201" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1201" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1201" s="21"/>
       <c r="H1201" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1201" s="19" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="J1201" s="19">
-        <v>0.8</v>
+        <v>16</v>
       </c>
       <c r="K1201" s="19">
         <v>0</v>
       </c>
       <c r="L1201" s="12">
         <f t="shared" si="36"/>
-        <v>-0.8</v>
+        <v>-16</v>
       </c>
       <c r="M1201" s="15">
         <f t="shared" si="37"/>
@@ -64529,72 +64526,72 @@
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1202" s="16" t="s">
-        <v>4051</v>
-      </c>
-      <c r="B1202" s="22" t="s">
-        <v>601</v>
+        <v>4052</v>
+      </c>
+      <c r="B1202" s="17" t="s">
+        <v>4053</v>
       </c>
       <c r="C1202" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1202" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1202" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1202" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1202" s="21"/>
+        <v>3424</v>
+      </c>
+      <c r="E1202" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1202" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1202" s="21">
+        <v>800</v>
+      </c>
       <c r="H1202" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1202" s="19" t="s">
-        <v>4052</v>
+        <v>4054</v>
       </c>
       <c r="J1202" s="19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K1202" s="19">
         <v>0</v>
       </c>
       <c r="L1202" s="12">
         <f t="shared" si="36"/>
-        <v>-16</v>
-      </c>
-      <c r="M1202" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1202" s="15" t="e">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="1203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1203" s="16" t="s">
-        <v>4053</v>
-      </c>
-      <c r="B1203" s="17" t="s">
-        <v>4054</v>
+        <v>4055</v>
+      </c>
+      <c r="B1203" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1203" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1203" s="17" t="s">
-        <v>3424</v>
-      </c>
-      <c r="E1203" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1203" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="G1203" s="21">
-        <v>800</v>
-      </c>
+        <v>4056</v>
+      </c>
+      <c r="E1203" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1203" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1203" s="21"/>
       <c r="H1203" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1203" s="19" t="s">
-        <v>4055</v>
+        <v>4057</v>
       </c>
       <c r="J1203" s="19">
         <v>0</v>
@@ -64613,115 +64610,117 @@
     </row>
     <row r="1204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1204" s="16" t="s">
-        <v>4056</v>
-      </c>
-      <c r="B1204" s="22" t="s">
-        <v>601</v>
+        <v>4058</v>
+      </c>
+      <c r="B1204" s="17" t="s">
+        <v>4059</v>
       </c>
       <c r="C1204" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1204" s="17" t="s">
-        <v>4057</v>
-      </c>
-      <c r="E1204" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1204" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1204" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E1204" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1204" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="G1204" s="21">
+        <v>800</v>
+      </c>
       <c r="H1204" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1204" s="19" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="J1204" s="19">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="K1204" s="19">
         <v>0</v>
       </c>
       <c r="L1204" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1204" s="15" t="e">
+        <v>-21.6</v>
+      </c>
+      <c r="M1204" s="15">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1205" s="16" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1205" s="17" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C1205" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1205" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1205" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1205" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1205" s="21">
+        <v>400</v>
+      </c>
+      <c r="H1205" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1205" s="19" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J1205" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1205" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1205" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M1205" s="15" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1205" s="16" t="s">
-        <v>4059</v>
-      </c>
-      <c r="B1205" s="17" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1205" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1205" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1205" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1205" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="G1205" s="21">
-        <v>800</v>
-      </c>
-      <c r="H1205" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1205" s="19" t="s">
-        <v>4061</v>
-      </c>
-      <c r="J1205" s="19">
-        <v>21.6</v>
-      </c>
-      <c r="K1205" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1205" s="12">
-        <f t="shared" si="36"/>
-        <v>-21.6</v>
-      </c>
-      <c r="M1205" s="15">
-        <f t="shared" si="37"/>
-        <v>-1</v>
-      </c>
-    </row>
     <row r="1206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1206" s="16" t="s">
-        <v>3036</v>
+        <v>4063</v>
       </c>
       <c r="B1206" s="17" t="s">
-        <v>4062</v>
+        <v>4064</v>
       </c>
       <c r="C1206" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1206" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1206" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1206" s="12" t="s">
-        <v>18</v>
+      <c r="E1206" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1206" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="G1206" s="21">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H1206" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1206" s="19" t="s">
-        <v>4063</v>
+        <v>4065</v>
       </c>
       <c r="J1206" s="19">
         <v>0</v>
@@ -64740,31 +64739,31 @@
     </row>
     <row r="1207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1207" s="16" t="s">
-        <v>4064</v>
+        <v>4066</v>
       </c>
       <c r="B1207" s="17" t="s">
-        <v>4065</v>
+        <v>4067</v>
       </c>
       <c r="C1207" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1207" s="17" t="s">
+      <c r="D1207" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1207" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1207" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1207" s="17" t="s">
-        <v>405</v>
+      <c r="F1207" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G1207" s="21">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H1207" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1207" s="19" t="s">
-        <v>4066</v>
+        <v>4068</v>
       </c>
       <c r="J1207" s="19">
         <v>0</v>
@@ -64783,392 +64782,388 @@
     </row>
     <row r="1208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1208" s="16" t="s">
-        <v>4067</v>
-      </c>
-      <c r="B1208" s="17" t="s">
-        <v>4068</v>
+        <v>4069</v>
+      </c>
+      <c r="B1208" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1208" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1208" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1208" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1208" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1208" s="21">
-        <v>800</v>
-      </c>
+      <c r="D1208" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1208" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1208" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1208" s="21"/>
       <c r="H1208" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1208" s="19" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="J1208" s="19">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K1208" s="19">
         <v>0</v>
       </c>
       <c r="L1208" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1208" s="15" t="e">
+        <v>-1.6</v>
+      </c>
+      <c r="M1208" s="15">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1209" s="16" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B1209" s="17" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C1209" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1209" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1209" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1209" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1209" s="21">
+        <v>400</v>
+      </c>
+      <c r="H1209" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1209" s="19" t="s">
+        <v>4073</v>
+      </c>
+      <c r="J1209" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1209" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1209" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M1209" s="15" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1209" s="16" t="s">
-        <v>4070</v>
-      </c>
-      <c r="B1209" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1209" s="18" t="s">
+    <row r="1210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1210" s="16" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B1210" s="17" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C1210" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1209" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1209" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1209" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1209" s="21"/>
-      <c r="H1209" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1209" s="19" t="s">
-        <v>4071</v>
-      </c>
-      <c r="J1209" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="K1209" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1209" s="12">
+      <c r="D1210" s="17" t="s">
+        <v>4076</v>
+      </c>
+      <c r="E1210" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1210" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1210" s="21">
+        <v>400</v>
+      </c>
+      <c r="H1210" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1210" s="19" t="s">
+        <v>4077</v>
+      </c>
+      <c r="J1210" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="K1210" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1210" s="12">
         <f t="shared" si="36"/>
-        <v>-1.6</v>
-      </c>
-      <c r="M1209" s="15">
+        <v>-1.2</v>
+      </c>
+      <c r="M1210" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1210" s="16" t="s">
-        <v>4072</v>
-      </c>
-      <c r="B1210" s="17" t="s">
-        <v>4073</v>
-      </c>
-      <c r="C1210" s="18" t="s">
+    <row r="1211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1211" s="16" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1211" s="17" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C1211" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1210" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1210" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1210" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1210" s="21">
+      <c r="D1211" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1211" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1211" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1211" s="21">
         <v>400</v>
       </c>
-      <c r="H1210" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1210" s="19" t="s">
-        <v>4074</v>
-      </c>
-      <c r="J1210" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1210" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1210" s="12">
+      <c r="H1211" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1211" s="19" t="s">
+        <v>4079</v>
+      </c>
+      <c r="J1211" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1211" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1211" s="12">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M1210" s="15" t="e">
+      <c r="M1211" s="15" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1211" s="16" t="s">
-        <v>4075</v>
-      </c>
-      <c r="B1211" s="17" t="s">
-        <v>4076</v>
-      </c>
-      <c r="C1211" s="18" t="s">
+    <row r="1212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1212" s="16" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B1212" s="17" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C1212" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1211" s="17" t="s">
-        <v>4077</v>
-      </c>
-      <c r="E1211" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1211" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1211" s="21">
-        <v>400</v>
-      </c>
-      <c r="H1211" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1211" s="19" t="s">
-        <v>4078</v>
-      </c>
-      <c r="J1211" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="K1211" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1211" s="12">
+      <c r="D1212" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1212" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1212" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1212" s="21">
+        <v>800</v>
+      </c>
+      <c r="H1212" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1212" s="19" t="s">
+        <v>4082</v>
+      </c>
+      <c r="J1212" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="K1212" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1212" s="12">
         <f t="shared" si="36"/>
-        <v>-1.2</v>
-      </c>
-      <c r="M1211" s="15">
+        <v>-0.8</v>
+      </c>
+      <c r="M1212" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1212" s="16" t="s">
-        <v>2951</v>
-      </c>
-      <c r="B1212" s="17" t="s">
-        <v>4079</v>
-      </c>
-      <c r="C1212" s="18" t="s">
+    <row r="1213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1213" s="16" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B1213" s="17" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C1213" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1212" s="17" t="s">
+      <c r="D1213" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E1212" s="17" t="s">
+      <c r="E1213" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F1212" s="17" t="s">
-        <v>4266</v>
-      </c>
-      <c r="G1212" s="21">
-        <v>400</v>
-      </c>
-      <c r="H1212" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1212" s="19" t="s">
-        <v>4080</v>
-      </c>
-      <c r="J1212" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1212" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1212" s="12">
+      <c r="F1213" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1213" s="21">
+        <v>800</v>
+      </c>
+      <c r="H1213" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1213" s="19" t="s">
+        <v>4085</v>
+      </c>
+      <c r="J1213" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1213" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1213" s="12">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M1212" s="15" t="e">
+      <c r="M1213" s="15" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1213" s="16" t="s">
-        <v>4081</v>
-      </c>
-      <c r="B1213" s="17" t="s">
-        <v>4082</v>
-      </c>
-      <c r="C1213" s="18" t="s">
+    <row r="1214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1214" s="16" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B1214" s="17" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C1214" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1213" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1213" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1213" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1213" s="21">
+      <c r="D1214" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1214" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1214" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1214" s="21">
         <v>800</v>
       </c>
-      <c r="H1213" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1213" s="19" t="s">
-        <v>4083</v>
-      </c>
-      <c r="J1213" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="K1213" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1213" s="12">
+      <c r="H1214" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1214" s="19" t="s">
+        <v>4087</v>
+      </c>
+      <c r="J1214" s="19">
+        <v>24.8</v>
+      </c>
+      <c r="K1214" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1214" s="12">
         <f t="shared" si="36"/>
-        <v>-0.8</v>
-      </c>
-      <c r="M1213" s="15">
+        <v>-24.8</v>
+      </c>
+      <c r="M1214" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1214" s="16" t="s">
-        <v>4084</v>
-      </c>
-      <c r="B1214" s="17" t="s">
-        <v>4085</v>
-      </c>
-      <c r="C1214" s="18" t="s">
+    <row r="1215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1215" s="16" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B1215" s="17" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C1215" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1214" s="17" t="s">
+      <c r="D1215" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E1214" s="17" t="s">
+      <c r="E1215" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F1214" s="17" t="s">
-        <v>4266</v>
-      </c>
-      <c r="G1214" s="21">
-        <v>800</v>
-      </c>
-      <c r="H1214" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1214" s="19" t="s">
-        <v>4086</v>
-      </c>
-      <c r="J1214" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1214" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1214" s="12">
+      <c r="F1215" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1215" s="21">
+        <v>1200</v>
+      </c>
+      <c r="H1215" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1215" s="19" t="s">
+        <v>4090</v>
+      </c>
+      <c r="J1215" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1215" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1215" s="12">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M1214" s="15" t="e">
+      <c r="M1215" s="15" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1215" s="16" t="s">
-        <v>4087</v>
-      </c>
-      <c r="B1215" s="17" t="s">
-        <v>4085</v>
-      </c>
-      <c r="C1215" s="18" t="s">
+    <row r="1216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1216" s="16" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B1216" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1216" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1215" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1215" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1215" s="17" t="s">
-        <v>4266</v>
-      </c>
-      <c r="G1215" s="21">
-        <v>800</v>
-      </c>
-      <c r="H1215" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1215" s="19" t="s">
-        <v>4088</v>
-      </c>
-      <c r="J1215" s="19">
-        <v>24.8</v>
-      </c>
-      <c r="K1215" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1215" s="12">
+      <c r="D1216" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1216" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1216" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1216" s="21"/>
+      <c r="H1216" s="12"/>
+      <c r="I1216" s="19" t="s">
+        <v>4092</v>
+      </c>
+      <c r="J1216" s="19">
+        <v>9.6</v>
+      </c>
+      <c r="K1216" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1216" s="12">
         <f t="shared" si="36"/>
-        <v>-24.8</v>
-      </c>
-      <c r="M1215" s="15">
+        <v>-9.6</v>
+      </c>
+      <c r="M1216" s="15">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1216" s="16" t="s">
-        <v>4089</v>
-      </c>
-      <c r="B1216" s="17" t="s">
-        <v>4090</v>
-      </c>
-      <c r="C1216" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1216" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1216" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1216" s="17" t="s">
-        <v>4266</v>
-      </c>
-      <c r="G1216" s="21">
-        <v>1200</v>
-      </c>
-      <c r="H1216" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1216" s="19" t="s">
-        <v>4091</v>
-      </c>
-      <c r="J1216" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1216" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1216" s="12">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1216" s="15" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="1217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1217" s="16" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="B1217" s="22" t="s">
         <v>601</v>
@@ -65188,26 +65183,26 @@
       <c r="G1217" s="21"/>
       <c r="H1217" s="12"/>
       <c r="I1217" s="19" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="J1217" s="19">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="K1217" s="19">
         <v>0</v>
       </c>
       <c r="L1217" s="12">
         <f t="shared" si="36"/>
-        <v>-9.6</v>
-      </c>
-      <c r="M1217" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1217" s="15" t="e">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="1218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1218" s="16" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="B1218" s="22" t="s">
         <v>601</v>
@@ -65227,7 +65222,7 @@
       <c r="G1218" s="21"/>
       <c r="H1218" s="12"/>
       <c r="I1218" s="19" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="J1218" s="19">
         <v>0</v>
@@ -65246,7 +65241,7 @@
     </row>
     <row r="1219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1219" s="16" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="B1219" s="22" t="s">
         <v>601</v>
@@ -65266,7 +65261,7 @@
       <c r="G1219" s="21"/>
       <c r="H1219" s="12"/>
       <c r="I1219" s="19" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="J1219" s="19">
         <v>0</v>
@@ -65285,7 +65280,7 @@
     </row>
     <row r="1220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1220" s="16" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="B1220" s="22" t="s">
         <v>601</v>
@@ -65305,108 +65300,108 @@
       <c r="G1220" s="21"/>
       <c r="H1220" s="12"/>
       <c r="I1220" s="19" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="J1220" s="19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K1220" s="19">
         <v>0</v>
       </c>
       <c r="L1220" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M1220" s="15" t="e">
+        <v>-0.4</v>
+      </c>
+      <c r="M1220" s="15">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1221" s="16" t="s">
-        <v>4100</v>
-      </c>
-      <c r="B1221" s="22" t="s">
-        <v>601</v>
+        <v>4101</v>
+      </c>
+      <c r="B1221" s="17" t="s">
+        <v>4102</v>
       </c>
       <c r="C1221" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1221" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1221" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1221" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1221" s="21"/>
-      <c r="H1221" s="12"/>
+      <c r="D1221" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1221" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1221" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1221" s="21">
+        <v>200</v>
+      </c>
+      <c r="H1221" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="I1221" s="19" t="s">
-        <v>4101</v>
+        <v>4103</v>
       </c>
       <c r="J1221" s="19">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K1221" s="19">
         <v>0</v>
       </c>
       <c r="L1221" s="12">
-        <f t="shared" si="36"/>
-        <v>-0.4</v>
+        <f t="shared" ref="L1221:L1277" si="38">K1221-J1221</f>
+        <v>-1</v>
       </c>
       <c r="M1221" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="M1221:M1277" si="39">L1221/J1221</f>
         <v>-1</v>
       </c>
     </row>
     <row r="1222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1222" s="16" t="s">
-        <v>4102</v>
-      </c>
-      <c r="B1222" s="17" t="s">
-        <v>4103</v>
+        <v>4104</v>
+      </c>
+      <c r="B1222" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1222" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1222" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="E1222" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1222" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1222" s="21">
-        <v>200</v>
-      </c>
-      <c r="H1222" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D1222" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1222" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1222" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1222" s="21"/>
+      <c r="H1222" s="12"/>
       <c r="I1222" s="19" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="J1222" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1222" s="19">
         <v>0</v>
       </c>
       <c r="L1222" s="12">
-        <f t="shared" ref="L1222:L1278" si="38">K1222-J1222</f>
-        <v>-1</v>
-      </c>
-      <c r="M1222" s="15">
-        <f t="shared" ref="M1222:M1278" si="39">L1222/J1222</f>
-        <v>-1</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M1222" s="15" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="1223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1223" s="16" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="B1223" s="22" t="s">
         <v>601</v>
@@ -65426,7 +65421,7 @@
       <c r="G1223" s="21"/>
       <c r="H1223" s="12"/>
       <c r="I1223" s="19" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="J1223" s="19">
         <v>0</v>
@@ -65445,98 +65440,102 @@
     </row>
     <row r="1224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1224" s="16" t="s">
-        <v>4107</v>
-      </c>
-      <c r="B1224" s="22" t="s">
-        <v>601</v>
+        <v>4108</v>
+      </c>
+      <c r="B1224" s="17" t="s">
+        <v>4109</v>
       </c>
       <c r="C1224" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1224" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1224" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1224" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1224" s="21"/>
-      <c r="H1224" s="12"/>
+      <c r="D1224" s="17" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E1224" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1224" s="17" t="s">
+        <v>4261</v>
+      </c>
+      <c r="G1224" s="21">
+        <v>400</v>
+      </c>
+      <c r="H1224" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="I1224" s="19" t="s">
-        <v>4108</v>
+        <v>4110</v>
       </c>
       <c r="J1224" s="19">
-        <v>0</v>
+        <v>1669.6</v>
       </c>
       <c r="K1224" s="19">
         <v>0</v>
       </c>
       <c r="L1224" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1224" s="15" t="e">
+        <v>-1669.6</v>
+      </c>
+      <c r="M1224" s="15">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1225" s="16" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B1225" s="17" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C1225" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1225" s="17" t="s">
+        <v>4113</v>
+      </c>
+      <c r="E1225" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F1225" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1225" s="21">
+        <v>400</v>
+      </c>
+      <c r="H1225" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1225" s="19" t="s">
+        <v>4114</v>
+      </c>
+      <c r="J1225" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1225" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1225" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M1225" s="15" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1225" s="16" t="s">
-        <v>4109</v>
-      </c>
-      <c r="B1225" s="17" t="s">
-        <v>4110</v>
-      </c>
-      <c r="C1225" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1225" s="17" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E1225" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1225" s="17" t="s">
-        <v>4262</v>
-      </c>
-      <c r="G1225" s="21">
-        <v>400</v>
-      </c>
-      <c r="H1225" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1225" s="19" t="s">
-        <v>4111</v>
-      </c>
-      <c r="J1225" s="19">
-        <v>1669.6</v>
-      </c>
-      <c r="K1225" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1225" s="12">
-        <f t="shared" si="38"/>
-        <v>-1669.6</v>
-      </c>
-      <c r="M1225" s="15">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-    </row>
     <row r="1226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1226" s="16" t="s">
-        <v>4112</v>
+        <v>4115</v>
       </c>
       <c r="B1226" s="17" t="s">
-        <v>4113</v>
+        <v>4116</v>
       </c>
       <c r="C1226" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D1226" s="17" t="s">
-        <v>4114</v>
+        <v>2561</v>
       </c>
       <c r="E1226" s="17" t="s">
         <v>1051</v>
@@ -65551,7 +65550,7 @@
         <v>19</v>
       </c>
       <c r="I1226" s="19" t="s">
-        <v>4115</v>
+        <v>4117</v>
       </c>
       <c r="J1226" s="19">
         <v>0</v>
@@ -65570,31 +65569,27 @@
     </row>
     <row r="1227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1227" s="16" t="s">
-        <v>4116</v>
-      </c>
-      <c r="B1227" s="17" t="s">
-        <v>4117</v>
+        <v>4118</v>
+      </c>
+      <c r="B1227" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1227" s="18" t="s">
-        <v>16</v>
+        <v>1178</v>
       </c>
       <c r="D1227" s="17" t="s">
-        <v>2561</v>
-      </c>
-      <c r="E1227" s="17" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F1227" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="G1227" s="21">
-        <v>400</v>
-      </c>
-      <c r="H1227" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E1227" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1227" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1227" s="21"/>
+      <c r="H1227" s="12"/>
       <c r="I1227" s="19" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="J1227" s="19">
         <v>0</v>
@@ -65613,27 +65608,31 @@
     </row>
     <row r="1228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1228" s="16" t="s">
-        <v>4119</v>
-      </c>
-      <c r="B1228" s="22" t="s">
-        <v>601</v>
+        <v>4120</v>
+      </c>
+      <c r="B1228" s="17" t="s">
+        <v>4121</v>
       </c>
       <c r="C1228" s="18" t="s">
-        <v>1178</v>
+        <v>162</v>
       </c>
       <c r="D1228" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1228" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1228" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1228" s="21"/>
-      <c r="H1228" s="12"/>
+        <v>4122</v>
+      </c>
+      <c r="E1228" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1228" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1228" s="21">
+        <v>190</v>
+      </c>
+      <c r="H1228" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="I1228" s="19" t="s">
-        <v>4120</v>
+        <v>4123</v>
       </c>
       <c r="J1228" s="19">
         <v>0</v>
@@ -65652,21 +65651,21 @@
     </row>
     <row r="1229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1229" s="16" t="s">
-        <v>4121</v>
+        <v>4124</v>
       </c>
       <c r="B1229" s="17" t="s">
-        <v>4122</v>
+        <v>4125</v>
       </c>
       <c r="C1229" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1229" s="17" t="s">
-        <v>4123</v>
-      </c>
-      <c r="E1229" s="17" t="s">
+        <v>4126</v>
+      </c>
+      <c r="E1229" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="F1229" s="17" t="s">
+      <c r="F1229" s="20" t="s">
         <v>405</v>
       </c>
       <c r="G1229" s="21">
@@ -65676,84 +65675,84 @@
         <v>19</v>
       </c>
       <c r="I1229" s="19" t="s">
-        <v>4124</v>
+        <v>4127</v>
       </c>
       <c r="J1229" s="19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K1229" s="19">
         <v>0</v>
       </c>
       <c r="L1229" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1229" s="15" t="e">
+        <v>-0.8</v>
+      </c>
+      <c r="M1229" s="15">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1230" s="16" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B1230" s="17" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C1230" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1230" s="17" t="s">
+        <v>4130</v>
+      </c>
+      <c r="E1230" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1230" s="17" t="s">
+        <v>4261</v>
+      </c>
+      <c r="G1230" s="21">
+        <v>250</v>
+      </c>
+      <c r="H1230" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1230" s="19" t="s">
+        <v>4131</v>
+      </c>
+      <c r="J1230" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1230" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1230" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M1230" s="15" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1230" s="16" t="s">
-        <v>4125</v>
-      </c>
-      <c r="B1230" s="17" t="s">
-        <v>4126</v>
-      </c>
-      <c r="C1230" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1230" s="17" t="s">
-        <v>4127</v>
-      </c>
-      <c r="E1230" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1230" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1230" s="21">
-        <v>190</v>
-      </c>
-      <c r="H1230" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1230" s="19" t="s">
-        <v>4128</v>
-      </c>
-      <c r="J1230" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="K1230" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1230" s="12">
-        <f t="shared" si="38"/>
-        <v>-0.8</v>
-      </c>
-      <c r="M1230" s="15">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-    </row>
     <row r="1231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1231" s="16" t="s">
-        <v>4129</v>
+        <v>4132</v>
       </c>
       <c r="B1231" s="17" t="s">
-        <v>4130</v>
+        <v>4133</v>
       </c>
       <c r="C1231" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1231" s="17" t="s">
-        <v>4131</v>
+        <v>4134</v>
       </c>
       <c r="E1231" s="17" t="s">
-        <v>58</v>
+        <v>2015</v>
       </c>
       <c r="F1231" s="17" t="s">
-        <v>4262</v>
+        <v>4264</v>
       </c>
       <c r="G1231" s="21">
         <v>250</v>
@@ -65762,7 +65761,7 @@
         <v>125</v>
       </c>
       <c r="I1231" s="19" t="s">
-        <v>4132</v>
+        <v>4135</v>
       </c>
       <c r="J1231" s="19">
         <v>0</v>
@@ -65781,31 +65780,31 @@
     </row>
     <row r="1232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1232" s="16" t="s">
-        <v>4133</v>
+        <v>4136</v>
       </c>
       <c r="B1232" s="17" t="s">
-        <v>4134</v>
+        <v>4137</v>
       </c>
       <c r="C1232" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1232" s="17" t="s">
-        <v>4135</v>
+        <v>4138</v>
       </c>
       <c r="E1232" s="17" t="s">
-        <v>2015</v>
+        <v>456</v>
       </c>
       <c r="F1232" s="17" t="s">
-        <v>4265</v>
+        <v>456</v>
       </c>
       <c r="G1232" s="21">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H1232" s="12" t="s">
         <v>125</v>
       </c>
       <c r="I1232" s="19" t="s">
-        <v>4136</v>
+        <v>4139</v>
       </c>
       <c r="J1232" s="19">
         <v>0</v>
@@ -65824,31 +65823,31 @@
     </row>
     <row r="1233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1233" s="16" t="s">
-        <v>4137</v>
+        <v>4140</v>
       </c>
       <c r="B1233" s="17" t="s">
-        <v>4138</v>
+        <v>4141</v>
       </c>
       <c r="C1233" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1233" s="17" t="s">
-        <v>4139</v>
+        <v>3402</v>
       </c>
       <c r="E1233" s="17" t="s">
-        <v>456</v>
+        <v>194</v>
       </c>
       <c r="F1233" s="17" t="s">
-        <v>456</v>
+        <v>194</v>
       </c>
       <c r="G1233" s="21">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="H1233" s="12" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="I1233" s="19" t="s">
-        <v>4140</v>
+        <v>4142</v>
       </c>
       <c r="J1233" s="19">
         <v>0</v>
@@ -65867,31 +65866,29 @@
     </row>
     <row r="1234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1234" s="16" t="s">
-        <v>4141</v>
-      </c>
-      <c r="B1234" s="17" t="s">
-        <v>4142</v>
+        <v>4143</v>
+      </c>
+      <c r="B1234" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1234" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1234" s="17" t="s">
-        <v>3402</v>
-      </c>
-      <c r="E1234" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1234" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1234" s="21">
-        <v>345</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E1234" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1234" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1234" s="21"/>
       <c r="H1234" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1234" s="19" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="J1234" s="19">
         <v>0</v>
@@ -65910,7 +65907,7 @@
     </row>
     <row r="1235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1235" s="16" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="B1235" s="22" t="s">
         <v>601</v>
@@ -65932,7 +65929,7 @@
         <v>19</v>
       </c>
       <c r="I1235" s="19" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="J1235" s="19">
         <v>0</v>
@@ -65951,29 +65948,31 @@
     </row>
     <row r="1236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1236" s="16" t="s">
-        <v>4146</v>
-      </c>
-      <c r="B1236" s="22" t="s">
-        <v>601</v>
+        <v>4147</v>
+      </c>
+      <c r="B1236" s="17" t="s">
+        <v>4148</v>
       </c>
       <c r="C1236" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1236" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1236" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1236" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1236" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="E1236" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1236" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1236" s="21">
+        <v>250</v>
+      </c>
       <c r="H1236" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1236" s="19" t="s">
-        <v>4147</v>
+        <v>4149</v>
       </c>
       <c r="J1236" s="19">
         <v>0</v>
@@ -65992,170 +65991,168 @@
     </row>
     <row r="1237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1237" s="16" t="s">
-        <v>4148</v>
+        <v>4150</v>
       </c>
       <c r="B1237" s="17" t="s">
-        <v>4149</v>
+        <v>4151</v>
       </c>
       <c r="C1237" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1237" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1237" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1237" s="17" t="s">
-        <v>88</v>
+        <v>4152</v>
+      </c>
+      <c r="E1237" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1237" s="20" t="s">
+        <v>456</v>
       </c>
       <c r="G1237" s="21">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="H1237" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1237" s="19" t="s">
-        <v>4150</v>
+        <v>4153</v>
       </c>
       <c r="J1237" s="19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K1237" s="19">
         <v>0</v>
       </c>
       <c r="L1237" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1237" s="15" t="e">
+        <v>-0.2</v>
+      </c>
+      <c r="M1237" s="15">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1238" s="16" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B1238" s="17" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C1238" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1238" s="17" t="s">
+        <v>4156</v>
+      </c>
+      <c r="E1238" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1238" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1238" s="21">
+        <v>190</v>
+      </c>
+      <c r="H1238" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1238" s="19" t="s">
+        <v>4157</v>
+      </c>
+      <c r="J1238" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1238" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1238" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M1238" s="15" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1238" s="16" t="s">
-        <v>4151</v>
-      </c>
-      <c r="B1238" s="17" t="s">
-        <v>4152</v>
-      </c>
-      <c r="C1238" s="18" t="s">
+    <row r="1239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1239" s="16" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B1239" s="17" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C1239" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D1238" s="17" t="s">
-        <v>4153</v>
-      </c>
-      <c r="E1238" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1238" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1238" s="21">
-        <v>190</v>
-      </c>
-      <c r="H1238" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1238" s="19" t="s">
-        <v>4154</v>
-      </c>
-      <c r="J1238" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K1238" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1238" s="12">
+      <c r="D1239" s="17" t="s">
+        <v>4160</v>
+      </c>
+      <c r="E1239" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1239" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1239" s="21">
+        <v>290</v>
+      </c>
+      <c r="H1239" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1239" s="19" t="s">
+        <v>4161</v>
+      </c>
+      <c r="J1239" s="19">
+        <v>34.1</v>
+      </c>
+      <c r="K1239" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1239" s="12">
         <f t="shared" si="38"/>
-        <v>-0.2</v>
-      </c>
-      <c r="M1238" s="15">
+        <v>-34.1</v>
+      </c>
+      <c r="M1239" s="15">
         <f t="shared" si="39"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1239" s="16" t="s">
-        <v>4155</v>
-      </c>
-      <c r="B1239" s="17" t="s">
-        <v>4156</v>
-      </c>
-      <c r="C1239" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1239" s="17" t="s">
-        <v>4157</v>
-      </c>
-      <c r="E1239" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1239" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1239" s="21">
-        <v>190</v>
-      </c>
-      <c r="H1239" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1239" s="19" t="s">
-        <v>4158</v>
-      </c>
-      <c r="J1239" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1239" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1239" s="12">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1239" s="15" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="1240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1240" s="16" t="s">
-        <v>4159</v>
-      </c>
-      <c r="B1240" s="17" t="s">
-        <v>4160</v>
+        <v>4162</v>
+      </c>
+      <c r="B1240" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1240" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1240" s="17" t="s">
-        <v>4161</v>
-      </c>
-      <c r="E1240" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1240" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1240" s="21">
-        <v>290</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E1240" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1240" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1240" s="21"/>
       <c r="H1240" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1240" s="19" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="J1240" s="19">
-        <v>34.1</v>
+        <v>0.3</v>
       </c>
       <c r="K1240" s="19">
         <v>0</v>
       </c>
       <c r="L1240" s="12">
         <f t="shared" si="38"/>
-        <v>-34.1</v>
+        <v>-0.3</v>
       </c>
       <c r="M1240" s="15">
         <f t="shared" si="39"/>
@@ -66164,39 +66161,41 @@
     </row>
     <row r="1241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1241" s="16" t="s">
-        <v>4163</v>
-      </c>
-      <c r="B1241" s="22" t="s">
-        <v>601</v>
+        <v>4164</v>
+      </c>
+      <c r="B1241" s="17" t="s">
+        <v>4165</v>
       </c>
       <c r="C1241" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1241" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1241" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1241" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1241" s="21"/>
+        <v>1705</v>
+      </c>
+      <c r="E1241" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1241" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="G1241" s="21">
+        <v>190</v>
+      </c>
       <c r="H1241" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1241" s="19" t="s">
-        <v>4164</v>
+        <v>4166</v>
       </c>
       <c r="J1241" s="19">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="K1241" s="19">
         <v>0</v>
       </c>
       <c r="L1241" s="12">
         <f t="shared" si="38"/>
-        <v>-0.3</v>
+        <v>-4</v>
       </c>
       <c r="M1241" s="15">
         <f t="shared" si="39"/>
@@ -66205,22 +66204,22 @@
     </row>
     <row r="1242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1242" s="16" t="s">
-        <v>4165</v>
+        <v>4167</v>
       </c>
       <c r="B1242" s="17" t="s">
-        <v>4166</v>
+        <v>4168</v>
       </c>
       <c r="C1242" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1242" s="17" t="s">
-        <v>1705</v>
+        <v>4169</v>
       </c>
       <c r="E1242" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F1242" s="17" t="s">
-        <v>831</v>
+        <v>39</v>
       </c>
       <c r="G1242" s="21">
         <v>190</v>
@@ -66229,17 +66228,17 @@
         <v>19</v>
       </c>
       <c r="I1242" s="19" t="s">
-        <v>4167</v>
+        <v>4170</v>
       </c>
       <c r="J1242" s="19">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="K1242" s="19">
         <v>0</v>
       </c>
       <c r="L1242" s="12">
         <f t="shared" si="38"/>
-        <v>-4</v>
+        <v>-6.4</v>
       </c>
       <c r="M1242" s="15">
         <f t="shared" si="39"/>
@@ -66248,41 +66247,41 @@
     </row>
     <row r="1243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1243" s="16" t="s">
-        <v>4168</v>
+        <v>4171</v>
       </c>
       <c r="B1243" s="17" t="s">
-        <v>4169</v>
+        <v>4172</v>
       </c>
       <c r="C1243" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1243" s="17" t="s">
-        <v>4170</v>
-      </c>
-      <c r="E1243" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1243" s="17" t="s">
-        <v>39</v>
+        <v>601</v>
+      </c>
+      <c r="E1243" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1243" s="22" t="s">
+        <v>602</v>
       </c>
       <c r="G1243" s="21">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="H1243" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1243" s="19" t="s">
-        <v>4171</v>
+        <v>4173</v>
       </c>
       <c r="J1243" s="19">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="K1243" s="19">
         <v>0</v>
       </c>
       <c r="L1243" s="12">
         <f t="shared" si="38"/>
-        <v>-6.4</v>
+        <v>-0.5</v>
       </c>
       <c r="M1243" s="15">
         <f t="shared" si="39"/>
@@ -66291,158 +66290,156 @@
     </row>
     <row r="1244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1244" s="16" t="s">
-        <v>4172</v>
+        <v>4174</v>
       </c>
       <c r="B1244" s="17" t="s">
-        <v>4173</v>
+        <v>4175</v>
       </c>
       <c r="C1244" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D1244" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1244" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1244" s="22" t="s">
-        <v>602</v>
+        <v>736</v>
+      </c>
+      <c r="E1244" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1244" s="17" t="s">
+        <v>4261</v>
       </c>
       <c r="G1244" s="21">
-        <v>470</v>
+        <v>190</v>
       </c>
       <c r="H1244" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1244" s="19" t="s">
-        <v>4174</v>
+        <v>4176</v>
       </c>
       <c r="J1244" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K1244" s="19">
         <v>0</v>
       </c>
       <c r="L1244" s="12">
         <f t="shared" si="38"/>
-        <v>-0.5</v>
-      </c>
-      <c r="M1244" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1244" s="15" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1245" s="16" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B1245" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1245" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="D1245" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1245" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1245" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1245" s="21"/>
+      <c r="H1245" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1245" s="19" t="s">
+        <v>4178</v>
+      </c>
+      <c r="J1245" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="K1245" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1245" s="12">
+        <f t="shared" si="38"/>
+        <v>-3.2</v>
+      </c>
+      <c r="M1245" s="15">
         <f t="shared" si="39"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1245" s="16" t="s">
-        <v>4175</v>
-      </c>
-      <c r="B1245" s="17" t="s">
-        <v>4176</v>
-      </c>
-      <c r="C1245" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1245" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="E1245" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1245" s="17" t="s">
-        <v>4262</v>
-      </c>
-      <c r="G1245" s="21">
+    <row r="1246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1246" s="16" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B1246" s="17" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C1246" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1246" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1246" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1246" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1246" s="21">
         <v>190</v>
       </c>
-      <c r="H1245" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1245" s="19" t="s">
-        <v>4177</v>
-      </c>
-      <c r="J1245" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1245" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1245" s="12">
+      <c r="H1246" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1246" s="19" t="s">
+        <v>4181</v>
+      </c>
+      <c r="J1246" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1246" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1246" s="12">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="M1245" s="15" t="e">
+      <c r="M1246" s="15" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1246" s="16" t="s">
-        <v>4178</v>
-      </c>
-      <c r="B1246" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1246" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="D1246" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1246" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1246" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1246" s="21"/>
-      <c r="H1246" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1246" s="19" t="s">
-        <v>4179</v>
-      </c>
-      <c r="J1246" s="19">
-        <v>3.2</v>
-      </c>
-      <c r="K1246" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1246" s="12">
-        <f t="shared" si="38"/>
-        <v>-3.2</v>
-      </c>
-      <c r="M1246" s="15">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-    </row>
     <row r="1247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1247" s="16" t="s">
-        <v>4180</v>
-      </c>
-      <c r="B1247" s="17" t="s">
-        <v>4181</v>
+        <v>4182</v>
+      </c>
+      <c r="B1247" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1247" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="D1247" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1247" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1247" s="17" t="s">
-        <v>4266</v>
-      </c>
-      <c r="G1247" s="21">
-        <v>190</v>
-      </c>
+      <c r="D1247" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1247" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1247" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1247" s="21"/>
       <c r="H1247" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1247" s="19" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="J1247" s="19">
         <v>0</v>
@@ -66461,7 +66458,7 @@
     </row>
     <row r="1248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1248" s="16" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="B1248" s="22" t="s">
         <v>601</v>
@@ -66483,7 +66480,7 @@
         <v>19</v>
       </c>
       <c r="I1248" s="19" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="J1248" s="19">
         <v>0</v>
@@ -66502,7 +66499,7 @@
     </row>
     <row r="1249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1249" s="16" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="B1249" s="22" t="s">
         <v>601</v>
@@ -66524,7 +66521,7 @@
         <v>19</v>
       </c>
       <c r="I1249" s="19" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="J1249" s="19">
         <v>0</v>
@@ -66543,7 +66540,7 @@
     </row>
     <row r="1250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1250" s="16" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="B1250" s="22" t="s">
         <v>601</v>
@@ -66565,7 +66562,7 @@
         <v>19</v>
       </c>
       <c r="I1250" s="19" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="J1250" s="19">
         <v>0</v>
@@ -66584,7 +66581,7 @@
     </row>
     <row r="1251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1251" s="16" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="B1251" s="22" t="s">
         <v>601</v>
@@ -66606,7 +66603,7 @@
         <v>19</v>
       </c>
       <c r="I1251" s="19" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="J1251" s="19">
         <v>0</v>
@@ -66625,7 +66622,7 @@
     </row>
     <row r="1252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1252" s="16" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="B1252" s="22" t="s">
         <v>601</v>
@@ -66647,7 +66644,7 @@
         <v>19</v>
       </c>
       <c r="I1252" s="19" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="J1252" s="19">
         <v>0</v>
@@ -66666,7 +66663,7 @@
     </row>
     <row r="1253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1253" s="16" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="B1253" s="22" t="s">
         <v>601</v>
@@ -66688,7 +66685,7 @@
         <v>19</v>
       </c>
       <c r="I1253" s="19" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="J1253" s="19">
         <v>0</v>
@@ -66707,29 +66704,31 @@
     </row>
     <row r="1254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1254" s="16" t="s">
-        <v>4195</v>
-      </c>
-      <c r="B1254" s="22" t="s">
-        <v>601</v>
+        <v>4196</v>
+      </c>
+      <c r="B1254" s="17" t="s">
+        <v>4197</v>
       </c>
       <c r="C1254" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="D1254" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1254" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1254" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1254" s="21"/>
+      <c r="D1254" s="17" t="s">
+        <v>4198</v>
+      </c>
+      <c r="E1254" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1254" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1254" s="21">
+        <v>380</v>
+      </c>
       <c r="H1254" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1254" s="19" t="s">
-        <v>4196</v>
+        <v>4199</v>
       </c>
       <c r="J1254" s="19">
         <v>0</v>
@@ -66748,16 +66747,16 @@
     </row>
     <row r="1255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1255" s="16" t="s">
-        <v>4197</v>
+        <v>4200</v>
       </c>
       <c r="B1255" s="17" t="s">
-        <v>4198</v>
+        <v>4201</v>
       </c>
       <c r="C1255" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D1255" s="17" t="s">
-        <v>4199</v>
+        <v>1923</v>
       </c>
       <c r="E1255" s="17" t="s">
         <v>24</v>
@@ -66766,41 +66765,41 @@
         <v>878</v>
       </c>
       <c r="G1255" s="21">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="H1255" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1255" s="19" t="s">
-        <v>4200</v>
+        <v>4202</v>
       </c>
       <c r="J1255" s="19">
-        <v>0</v>
+        <v>228.8</v>
       </c>
       <c r="K1255" s="19">
         <v>0</v>
       </c>
       <c r="L1255" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1255" s="15" t="e">
+        <v>-228.8</v>
+      </c>
+      <c r="M1255" s="15">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1256" s="16" t="s">
-        <v>4201</v>
+        <v>4203</v>
       </c>
       <c r="B1256" s="17" t="s">
-        <v>4202</v>
+        <v>4204</v>
       </c>
       <c r="C1256" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D1256" s="17" t="s">
-        <v>1923</v>
+        <v>4205</v>
       </c>
       <c r="E1256" s="17" t="s">
         <v>24</v>
@@ -66815,17 +66814,17 @@
         <v>19</v>
       </c>
       <c r="I1256" s="19" t="s">
-        <v>4203</v>
+        <v>4206</v>
       </c>
       <c r="J1256" s="19">
-        <v>228.8</v>
+        <v>448.9</v>
       </c>
       <c r="K1256" s="19">
         <v>0</v>
       </c>
       <c r="L1256" s="12">
         <f t="shared" si="38"/>
-        <v>-228.8</v>
+        <v>-448.9</v>
       </c>
       <c r="M1256" s="15">
         <f t="shared" si="39"/>
@@ -66834,125 +66833,125 @@
     </row>
     <row r="1257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1257" s="16" t="s">
-        <v>4204</v>
-      </c>
-      <c r="B1257" s="17" t="s">
-        <v>4205</v>
+        <v>4207</v>
+      </c>
+      <c r="B1257" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1257" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D1257" s="17" t="s">
-        <v>4206</v>
-      </c>
-      <c r="E1257" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1257" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="G1257" s="21">
-        <v>190</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E1257" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1257" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1257" s="21"/>
       <c r="H1257" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1257" s="19" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="J1257" s="19">
-        <v>448.9</v>
+        <v>0</v>
       </c>
       <c r="K1257" s="19">
         <v>0</v>
       </c>
       <c r="L1257" s="12">
         <f t="shared" si="38"/>
-        <v>-448.9</v>
-      </c>
-      <c r="M1257" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1257" s="15" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1258" s="16" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B1258" s="17" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C1258" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1258" s="17" t="s">
+        <v>4211</v>
+      </c>
+      <c r="E1258" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1258" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1258" s="21">
+        <v>580</v>
+      </c>
+      <c r="H1258" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1258" s="19" t="s">
+        <v>4212</v>
+      </c>
+      <c r="J1258" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="K1258" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1258" s="12">
+        <f t="shared" si="38"/>
+        <v>-1.2</v>
+      </c>
+      <c r="M1258" s="15">
         <f t="shared" si="39"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1258" s="16" t="s">
-        <v>4208</v>
-      </c>
-      <c r="B1258" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1258" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D1258" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1258" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1258" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1258" s="21"/>
-      <c r="H1258" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1258" s="19" t="s">
-        <v>4209</v>
-      </c>
-      <c r="J1258" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1258" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1258" s="12">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1258" s="15" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="1259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1259" s="16" t="s">
-        <v>4210</v>
+        <v>4213</v>
       </c>
       <c r="B1259" s="17" t="s">
-        <v>4211</v>
+        <v>4214</v>
       </c>
       <c r="C1259" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D1259" s="17" t="s">
-        <v>4212</v>
+        <v>4215</v>
       </c>
       <c r="E1259" s="17" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="F1259" s="17" t="s">
         <v>4266</v>
       </c>
       <c r="G1259" s="21">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="H1259" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1259" s="19" t="s">
-        <v>4213</v>
+        <v>4216</v>
       </c>
       <c r="J1259" s="19">
-        <v>1.2</v>
+        <v>189</v>
       </c>
       <c r="K1259" s="19">
         <v>0</v>
       </c>
       <c r="L1259" s="12">
         <f t="shared" si="38"/>
-        <v>-1.2</v>
+        <v>-189</v>
       </c>
       <c r="M1259" s="15">
         <f t="shared" si="39"/>
@@ -66961,50 +66960,48 @@
     </row>
     <row r="1260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1260" s="16" t="s">
-        <v>4214</v>
-      </c>
-      <c r="B1260" s="17" t="s">
-        <v>4215</v>
+        <v>4217</v>
+      </c>
+      <c r="B1260" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1260" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D1260" s="17" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E1260" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1260" s="17" t="s">
-        <v>4267</v>
-      </c>
-      <c r="G1260" s="21">
-        <v>380</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E1260" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1260" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1260" s="21"/>
       <c r="H1260" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1260" s="19" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="J1260" s="19">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="K1260" s="19">
         <v>0</v>
       </c>
       <c r="L1260" s="12">
         <f t="shared" si="38"/>
-        <v>-189</v>
-      </c>
-      <c r="M1260" s="15">
+        <v>0</v>
+      </c>
+      <c r="M1260" s="15" t="e">
         <f t="shared" si="39"/>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="1261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1261" s="16" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="B1261" s="22" t="s">
         <v>601</v>
@@ -67026,7 +67023,7 @@
         <v>19</v>
       </c>
       <c r="I1261" s="19" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="J1261" s="19">
         <v>0</v>
@@ -67045,91 +67042,91 @@
     </row>
     <row r="1262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1262" s="16" t="s">
-        <v>4220</v>
-      </c>
-      <c r="B1262" s="22" t="s">
-        <v>601</v>
+        <v>4221</v>
+      </c>
+      <c r="B1262" s="17" t="s">
+        <v>4222</v>
       </c>
       <c r="C1262" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D1262" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1262" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1262" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1262" s="21"/>
+        <v>4223</v>
+      </c>
+      <c r="E1262" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1262" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="G1262" s="21">
+        <v>190</v>
+      </c>
       <c r="H1262" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1262" s="19" t="s">
-        <v>4221</v>
+        <v>4224</v>
       </c>
       <c r="J1262" s="19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K1262" s="19">
         <v>0</v>
       </c>
       <c r="L1262" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1262" s="15" t="e">
+        <v>-0.8</v>
+      </c>
+      <c r="M1262" s="15">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1263" s="16" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B1263" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1263" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1263" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1263" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1263" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1263" s="21"/>
+      <c r="H1263" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1263" s="19" t="s">
+        <v>4226</v>
+      </c>
+      <c r="J1263" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1263" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1263" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M1263" s="15" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1263" s="16" t="s">
-        <v>4222</v>
-      </c>
-      <c r="B1263" s="17" t="s">
-        <v>4223</v>
-      </c>
-      <c r="C1263" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D1263" s="17" t="s">
-        <v>4224</v>
-      </c>
-      <c r="E1263" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1263" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="G1263" s="21">
-        <v>190</v>
-      </c>
-      <c r="H1263" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1263" s="19" t="s">
-        <v>4225</v>
-      </c>
-      <c r="J1263" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="K1263" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1263" s="12">
-        <f t="shared" si="38"/>
-        <v>-0.8</v>
-      </c>
-      <c r="M1263" s="15">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-    </row>
     <row r="1264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1264" s="16" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="B1264" s="22" t="s">
         <v>601</v>
@@ -67151,7 +67148,7 @@
         <v>19</v>
       </c>
       <c r="I1264" s="19" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="J1264" s="19">
         <v>0</v>
@@ -67170,13 +67167,13 @@
     </row>
     <row r="1265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1265" s="16" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="B1265" s="22" t="s">
         <v>601</v>
       </c>
       <c r="C1265" s="18" t="s">
-        <v>609</v>
+        <v>4230</v>
       </c>
       <c r="D1265" s="17" t="s">
         <v>601</v>
@@ -67192,7 +67189,7 @@
         <v>19</v>
       </c>
       <c r="I1265" s="19" t="s">
-        <v>4229</v>
+        <v>4231</v>
       </c>
       <c r="J1265" s="19">
         <v>0</v>
@@ -67211,175 +67208,175 @@
     </row>
     <row r="1266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1266" s="16" t="s">
-        <v>4230</v>
-      </c>
-      <c r="B1266" s="22" t="s">
-        <v>601</v>
+        <v>4232</v>
+      </c>
+      <c r="B1266" s="17" t="s">
+        <v>4233</v>
       </c>
       <c r="C1266" s="18" t="s">
-        <v>4231</v>
+        <v>609</v>
       </c>
       <c r="D1266" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1266" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1266" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1266" s="21"/>
+        <v>4234</v>
+      </c>
+      <c r="E1266" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1266" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1266" s="21">
+        <v>190</v>
+      </c>
       <c r="H1266" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1266" s="19" t="s">
-        <v>4232</v>
+        <v>4235</v>
       </c>
       <c r="J1266" s="19">
-        <v>0</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="K1266" s="19">
         <v>0</v>
       </c>
       <c r="L1266" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1266" s="15" t="e">
+        <v>-2.9000000000000004</v>
+      </c>
+      <c r="M1266" s="15">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1267" s="16" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B1267" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1267" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1267" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1267" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1267" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1267" s="21"/>
+      <c r="H1267" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1267" s="19" t="s">
+        <v>4237</v>
+      </c>
+      <c r="J1267" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1267" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1267" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M1267" s="15" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1267" s="16" t="s">
-        <v>4233</v>
-      </c>
-      <c r="B1267" s="17" t="s">
-        <v>4234</v>
-      </c>
-      <c r="C1267" s="18" t="s">
+    <row r="1268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1268" s="16" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B1268" s="17" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C1268" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="D1267" s="17" t="s">
-        <v>4235</v>
-      </c>
-      <c r="E1267" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1267" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1267" s="21">
+      <c r="D1268" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1268" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1268" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1268" s="21">
         <v>190</v>
       </c>
-      <c r="H1267" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1267" s="19" t="s">
-        <v>4236</v>
-      </c>
-      <c r="J1267" s="19">
+      <c r="H1268" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1268" s="19" t="s">
+        <v>4240</v>
+      </c>
+      <c r="J1268" s="19">
         <v>2.9000000000000004</v>
       </c>
-      <c r="K1267" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1267" s="12">
+      <c r="K1268" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1268" s="12">
         <f t="shared" si="38"/>
         <v>-2.9000000000000004</v>
       </c>
-      <c r="M1267" s="15">
+      <c r="M1268" s="15">
         <f t="shared" si="39"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="1268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1268" s="16" t="s">
-        <v>4237</v>
-      </c>
-      <c r="B1268" s="22" t="s">
+    <row r="1269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1269" s="16" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B1269" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="C1268" s="18" t="s">
+      <c r="C1269" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="D1268" s="17" t="s">
+      <c r="D1269" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="E1268" s="22" t="s">
+      <c r="E1269" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="F1268" s="22" t="s">
+      <c r="F1269" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="G1268" s="21"/>
-      <c r="H1268" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1268" s="19" t="s">
-        <v>4238</v>
-      </c>
-      <c r="J1268" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1268" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1268" s="12">
+      <c r="G1269" s="21"/>
+      <c r="H1269" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1269" s="19" t="s">
+        <v>4242</v>
+      </c>
+      <c r="J1269" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1269" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1269" s="12">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="M1268" s="15" t="e">
+      <c r="M1269" s="15" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1269" s="16" t="s">
-        <v>4239</v>
-      </c>
-      <c r="B1269" s="17" t="s">
-        <v>4240</v>
-      </c>
-      <c r="C1269" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D1269" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1269" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1269" s="17" t="s">
-        <v>4266</v>
-      </c>
-      <c r="G1269" s="21">
-        <v>190</v>
-      </c>
-      <c r="H1269" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1269" s="19" t="s">
-        <v>4241</v>
-      </c>
-      <c r="J1269" s="19">
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="K1269" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1269" s="12">
-        <f t="shared" si="38"/>
-        <v>-2.9000000000000004</v>
-      </c>
-      <c r="M1269" s="15">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-    </row>
     <row r="1270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1270" s="16" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="B1270" s="22" t="s">
         <v>601</v>
@@ -67401,7 +67398,7 @@
         <v>19</v>
       </c>
       <c r="I1270" s="19" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="J1270" s="19">
         <v>0</v>
@@ -67420,29 +67417,31 @@
     </row>
     <row r="1271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1271" s="16" t="s">
-        <v>4244</v>
-      </c>
-      <c r="B1271" s="22" t="s">
-        <v>601</v>
+        <v>4245</v>
+      </c>
+      <c r="B1271" s="17" t="s">
+        <v>4246</v>
       </c>
       <c r="C1271" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D1271" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1271" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1271" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1271" s="21"/>
+        <v>341</v>
+      </c>
+      <c r="E1271" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1271" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1271" s="21">
+        <v>570</v>
+      </c>
       <c r="H1271" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1271" s="19" t="s">
-        <v>4245</v>
+        <v>4247</v>
       </c>
       <c r="J1271" s="19">
         <v>0</v>
@@ -67461,31 +67460,29 @@
     </row>
     <row r="1272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1272" s="16" t="s">
-        <v>4246</v>
-      </c>
-      <c r="B1272" s="17" t="s">
-        <v>4247</v>
+        <v>4248</v>
+      </c>
+      <c r="B1272" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="C1272" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D1272" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1272" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1272" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1272" s="21">
-        <v>570</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E1272" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1272" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1272" s="21"/>
       <c r="H1272" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1272" s="19" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="J1272" s="19">
         <v>0</v>
@@ -67504,13 +67501,13 @@
     </row>
     <row r="1273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1273" s="16" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="B1273" s="22" t="s">
         <v>601</v>
       </c>
       <c r="C1273" s="18" t="s">
-        <v>609</v>
+        <v>4230</v>
       </c>
       <c r="D1273" s="17" t="s">
         <v>601</v>
@@ -67526,7 +67523,7 @@
         <v>19</v>
       </c>
       <c r="I1273" s="19" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="J1273" s="19">
         <v>0</v>
@@ -67545,91 +67542,91 @@
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1274" s="16" t="s">
-        <v>4251</v>
-      </c>
-      <c r="B1274" s="22" t="s">
-        <v>601</v>
+        <v>4252</v>
+      </c>
+      <c r="B1274" s="17" t="s">
+        <v>4253</v>
       </c>
       <c r="C1274" s="18" t="s">
-        <v>4231</v>
+        <v>609</v>
       </c>
       <c r="D1274" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1274" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1274" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1274" s="21"/>
+        <v>1234</v>
+      </c>
+      <c r="E1274" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1274" s="17" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1274" s="21">
+        <v>190</v>
+      </c>
       <c r="H1274" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I1274" s="19" t="s">
-        <v>4252</v>
+        <v>4254</v>
       </c>
       <c r="J1274" s="19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="K1274" s="19">
         <v>0</v>
       </c>
       <c r="L1274" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1274" s="15" t="e">
+        <v>-2.1</v>
+      </c>
+      <c r="M1274" s="15">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1275" s="16" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B1275" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1275" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1275" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1275" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1275" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1275" s="21"/>
+      <c r="H1275" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1275" s="19" t="s">
+        <v>4256</v>
+      </c>
+      <c r="J1275" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1275" s="19">
+        <v>0</v>
+      </c>
+      <c r="L1275" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M1275" s="15" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="1275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1275" s="16" t="s">
-        <v>4253</v>
-      </c>
-      <c r="B1275" s="17" t="s">
-        <v>4254</v>
-      </c>
-      <c r="C1275" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D1275" s="17" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E1275" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1275" s="17" t="s">
-        <v>4266</v>
-      </c>
-      <c r="G1275" s="21">
-        <v>190</v>
-      </c>
-      <c r="H1275" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1275" s="19" t="s">
-        <v>4255</v>
-      </c>
-      <c r="J1275" s="19">
-        <v>2.1</v>
-      </c>
-      <c r="K1275" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1275" s="12">
-        <f t="shared" si="38"/>
-        <v>-2.1</v>
-      </c>
-      <c r="M1275" s="15">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-    </row>
     <row r="1276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1276" s="16" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="B1276" s="22" t="s">
         <v>601</v>
@@ -67651,7 +67648,7 @@
         <v>19</v>
       </c>
       <c r="I1276" s="19" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="J1276" s="19">
         <v>0</v>
@@ -67670,7 +67667,7 @@
     </row>
     <row r="1277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1277" s="16" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="B1277" s="22" t="s">
         <v>601</v>
@@ -67692,7 +67689,7 @@
         <v>19</v>
       </c>
       <c r="I1277" s="19" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="J1277" s="19">
         <v>0</v>
@@ -67710,51 +67707,11 @@
       </c>
     </row>
     <row r="1278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1278" s="16" t="s">
-        <v>4260</v>
-      </c>
-      <c r="B1278" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1278" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D1278" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1278" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1278" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1278" s="21"/>
-      <c r="H1278" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1278" s="19" t="s">
-        <v>4261</v>
-      </c>
-      <c r="J1278" s="19">
-        <v>0</v>
-      </c>
-      <c r="K1278" s="19">
-        <v>0</v>
-      </c>
-      <c r="L1278" s="12">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M1278" s="15" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E1278" s="17"/>
+      <c r="F1278" s="17"/>
+      <c r="H1278" s="12"/>
     </row>
     <row r="1279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E1279" s="17"/>
-      <c r="F1279" s="17" t="s">
-        <v>831</v>
-      </c>
       <c r="H1279" s="12"/>
     </row>
     <row r="1280" spans="1:13" x14ac:dyDescent="0.25">
@@ -68339,11 +68296,8 @@
     <row r="1473" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1473" s="12"/>
     </row>
-    <row r="1474" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H1474" s="12"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1141:C1202 C1204:C1278">
+  <conditionalFormatting sqref="C1203:C1277 C1141:C1201">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -68361,7 +68315,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L1278">
+  <conditionalFormatting sqref="L6:L1277">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
